--- a/old_method/xlsx/Others.xlsx
+++ b/old_method/xlsx/Others.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fernando.Cantu\Desktop\Nowcast\03 Code and data\Quarterly variables\Updates\NoScrap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B4E535-D213-4D6F-BDD4-30F47BD1B068}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35356401-8DD2-4B5C-97D1-D91CE913D9E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{585A5AE0-888E-4C53-BFE6-6B3890A9DE6D}"/>
   </bookViews>
@@ -167,11 +167,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -488,22 +488,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AED90491-13F0-4078-8B4E-DE4D5BECFB39}">
-  <dimension ref="A1:J220"/>
+  <dimension ref="A1:J221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C209" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E213" sqref="E213"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="24" style="4" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="24" style="5" customWidth="1"/>
     <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -517,22 +517,22 @@
       <c r="C1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>24</v>
       </c>
       <c r="J1" t="s">
@@ -549,16 +549,16 @@
       <c r="C2">
         <v>106563</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>1425</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>1049</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="5">
         <v>187427.20000000001</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="5">
         <v>408236.45</v>
       </c>
     </row>
@@ -572,16 +572,16 @@
       <c r="C3">
         <v>95281</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>1148</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>941</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="5">
         <v>190840.95</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="5">
         <v>435007.7</v>
       </c>
     </row>
@@ -595,16 +595,16 @@
       <c r="C4">
         <v>124033</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>1496</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>1113</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="5">
         <v>206612</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="5">
         <v>436565.7</v>
       </c>
     </row>
@@ -618,16 +618,16 @@
       <c r="C5">
         <v>123118</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>1604</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>1077</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="5">
         <v>216926.5</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="5">
         <v>484299.25</v>
       </c>
     </row>
@@ -641,16 +641,16 @@
       <c r="C6">
         <v>125873</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>1539</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>1033</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="5">
         <v>246829.7</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="5">
         <v>531214.19999999995</v>
       </c>
     </row>
@@ -664,16 +664,16 @@
       <c r="C7">
         <v>124875</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>1612</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <v>960</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="5">
         <v>235014.55</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="5">
         <v>536461.5</v>
       </c>
     </row>
@@ -687,16 +687,16 @@
       <c r="C8">
         <v>146415</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>1711</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <v>964</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="5">
         <v>223758.35</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="5">
         <v>495690.45</v>
       </c>
     </row>
@@ -710,16 +710,16 @@
       <c r="C9">
         <v>141221</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>1715</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <v>953</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="5">
         <v>265804.55</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="5">
         <v>605493.80000000005</v>
       </c>
     </row>
@@ -733,16 +733,16 @@
       <c r="C10">
         <v>148033</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
         <v>1827</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3">
         <v>891</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="5">
         <v>258275.7</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="5">
         <v>589242.15</v>
       </c>
     </row>
@@ -756,16 +756,16 @@
       <c r="C11">
         <v>150530</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="3">
         <v>1694</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="3">
         <v>917</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="5">
         <v>205753.25</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="5">
         <v>470970.6</v>
       </c>
     </row>
@@ -779,16 +779,16 @@
       <c r="C12">
         <v>141031</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="3">
         <v>1648</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="3">
         <v>926</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="5">
         <v>244647.4</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="5">
         <v>545979.5</v>
       </c>
     </row>
@@ -802,16 +802,16 @@
       <c r="C13">
         <v>135324</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="3">
         <v>1727</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="3">
         <v>1045</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="5">
         <v>260603.3</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="5">
         <v>566701.85</v>
       </c>
     </row>
@@ -827,16 +827,16 @@
       <c r="C14">
         <v>135028</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="3">
         <v>1709</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="3">
         <v>1045</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="5">
         <v>242056.85</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="5">
         <v>518538.4</v>
       </c>
     </row>
@@ -852,16 +852,16 @@
       <c r="C15">
         <v>105148</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="3">
         <v>1261</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="3">
         <v>957</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="5">
         <v>266399.3</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="5">
         <v>541138.80000000005</v>
       </c>
     </row>
@@ -877,16 +877,16 @@
       <c r="C16">
         <v>143087</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="3">
         <v>1724</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="3">
         <v>1085</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="5">
         <v>265076.25</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="5">
         <v>563571.25</v>
       </c>
     </row>
@@ -902,16 +902,16 @@
       <c r="C17">
         <v>134146</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="3">
         <v>1769</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="3">
         <v>1032</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="5">
         <v>262326.75</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="5">
         <v>589034.80000000005</v>
       </c>
     </row>
@@ -927,16 +927,16 @@
       <c r="C18">
         <v>143022</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="3">
         <v>1661</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="3">
         <v>1011</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="5">
         <v>303631.2</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="5">
         <v>651906.25</v>
       </c>
     </row>
@@ -952,16 +952,16 @@
       <c r="C19">
         <v>142343</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="3">
         <v>1660</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="3">
         <v>950</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="5">
         <v>257894.35</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="5">
         <v>563786.19999999995</v>
       </c>
     </row>
@@ -977,16 +977,16 @@
       <c r="C20">
         <v>157574</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="3">
         <v>1686</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="3">
         <v>955</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="5">
         <v>283974</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="5">
         <v>615714.30000000005</v>
       </c>
     </row>
@@ -1002,16 +1002,16 @@
       <c r="C21">
         <v>151171</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="3">
         <v>1791</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="3">
         <v>939</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="5">
         <v>290924.3</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="5">
         <v>650969.4</v>
       </c>
     </row>
@@ -1027,16 +1027,16 @@
       <c r="C22">
         <v>157518</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="3">
         <v>1814</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="3">
         <v>860</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="5">
         <v>272253.59999999998</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="5">
         <v>622729.19999999995</v>
       </c>
     </row>
@@ -1052,16 +1052,16 @@
       <c r="C23">
         <v>164753</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="3">
         <v>1773</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="3">
         <v>958</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="5">
         <v>298995.8</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I23" s="5">
         <v>671106.85</v>
       </c>
     </row>
@@ -1077,16 +1077,16 @@
       <c r="C24">
         <v>153774</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="3">
         <v>1755</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="3">
         <v>996</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="5">
         <v>289408.84999999998</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I24" s="5">
         <v>627787.05000000005</v>
       </c>
     </row>
@@ -1102,16 +1102,16 @@
       <c r="C25">
         <v>156713</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="3">
         <v>1847</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="3">
         <v>1053</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="5">
         <v>255674.15</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I25" s="5">
         <v>562657.6</v>
       </c>
     </row>
@@ -1127,16 +1127,16 @@
       <c r="C26">
         <v>135312</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="3">
         <v>1723</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="3">
         <v>1092</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="5">
         <v>270675.40000000002</v>
       </c>
-      <c r="I26" s="4">
+      <c r="I26" s="5">
         <v>616086.94999999995</v>
       </c>
     </row>
@@ -1152,16 +1152,16 @@
       <c r="C27">
         <v>134794</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="3">
         <v>1541</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="3">
         <v>1065</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="5">
         <v>234664.4</v>
       </c>
-      <c r="I27" s="4">
+      <c r="I27" s="5">
         <v>482373.7</v>
       </c>
     </row>
@@ -1177,16 +1177,16 @@
       <c r="C28">
         <v>162918</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="3">
         <v>1939</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="3">
         <v>1180</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="5">
         <v>270868.34999999998</v>
       </c>
-      <c r="I28" s="4">
+      <c r="I28" s="5">
         <v>611616.35</v>
       </c>
     </row>
@@ -1202,16 +1202,16 @@
       <c r="C29">
         <v>159979</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="3">
         <v>1744</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="3">
         <v>1136</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="5">
         <v>271558.90000000002</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I29" s="5">
         <v>616897.05000000005</v>
       </c>
     </row>
@@ -1227,16 +1227,16 @@
       <c r="C30">
         <v>165431</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="3">
         <v>1833</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="3">
         <v>1113</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="5">
         <v>293711.15000000002</v>
       </c>
-      <c r="I30" s="4">
+      <c r="I30" s="5">
         <v>660839.15</v>
       </c>
     </row>
@@ -1252,16 +1252,16 @@
       <c r="C31">
         <v>168272</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="3">
         <v>1826</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="3">
         <v>1068</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31" s="5">
         <v>265025.05</v>
       </c>
-      <c r="I31" s="4">
+      <c r="I31" s="5">
         <v>612080.80000000005</v>
       </c>
     </row>
@@ -1277,16 +1277,16 @@
       <c r="C32">
         <v>183626</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="3">
         <v>1863</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="3">
         <v>1022</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H32" s="5">
         <v>310499.15000000002</v>
       </c>
-      <c r="I32" s="4">
+      <c r="I32" s="5">
         <v>676399.45</v>
       </c>
     </row>
@@ -1302,16 +1302,16 @@
       <c r="C33">
         <v>182745</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="3">
         <v>1998</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="3">
         <v>1020</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H33" s="5">
         <v>283280.2</v>
       </c>
-      <c r="I33" s="4">
+      <c r="I33" s="5">
         <v>627388.80000000005</v>
       </c>
     </row>
@@ -1327,16 +1327,16 @@
       <c r="C34">
         <v>179664</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="3">
         <v>1923</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="3">
         <v>967</v>
       </c>
-      <c r="H34" s="4">
+      <c r="H34" s="5">
         <v>268435.09999999998</v>
       </c>
-      <c r="I34" s="4">
+      <c r="I34" s="5">
         <v>592780.80000000005</v>
       </c>
     </row>
@@ -1352,16 +1352,16 @@
       <c r="C35">
         <v>191232</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="3">
         <v>1938</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="3">
         <v>1050</v>
       </c>
-      <c r="H35" s="4">
+      <c r="H35" s="5">
         <v>290218.05</v>
       </c>
-      <c r="I35" s="4">
+      <c r="I35" s="5">
         <v>642935.9</v>
       </c>
     </row>
@@ -1377,16 +1377,16 @@
       <c r="C36">
         <v>179659</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="3">
         <v>1901</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="3">
         <v>1021</v>
       </c>
-      <c r="H36" s="4">
+      <c r="H36" s="5">
         <v>290342.45</v>
       </c>
-      <c r="I36" s="4">
+      <c r="I36" s="5">
         <v>630392.85</v>
       </c>
     </row>
@@ -1402,16 +1402,16 @@
       <c r="C37">
         <v>176923</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="3">
         <v>1756</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="3">
         <v>1053</v>
       </c>
-      <c r="H37" s="4">
+      <c r="H37" s="5">
         <v>268381.09999999998</v>
       </c>
-      <c r="I37" s="4">
+      <c r="I37" s="5">
         <v>551648.30000000005</v>
       </c>
     </row>
@@ -1427,16 +1427,16 @@
       <c r="C38">
         <v>182448</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="3">
         <v>1896</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="3">
         <v>1095</v>
       </c>
-      <c r="H38" s="4">
+      <c r="H38" s="5">
         <v>285076.2</v>
       </c>
-      <c r="I38" s="4">
+      <c r="I38" s="5">
         <v>590178.4</v>
       </c>
     </row>
@@ -1452,16 +1452,16 @@
       <c r="C39">
         <v>127527</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="3">
         <v>1428</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="3">
         <v>1012</v>
       </c>
-      <c r="H39" s="4">
+      <c r="H39" s="5">
         <v>260442.6</v>
       </c>
-      <c r="I39" s="4">
+      <c r="I39" s="5">
         <v>554465.05000000005</v>
       </c>
     </row>
@@ -1477,16 +1477,16 @@
       <c r="C40">
         <v>168681</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="3">
         <v>1809</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="3">
         <v>1220</v>
       </c>
-      <c r="H40" s="4">
+      <c r="H40" s="5">
         <v>262846.34999999998</v>
       </c>
-      <c r="I40" s="4">
+      <c r="I40" s="5">
         <v>525019.4</v>
       </c>
       <c r="J40">
@@ -1505,16 +1505,16 @@
       <c r="C41">
         <v>172489</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="3">
         <v>1838</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="3">
         <v>1174</v>
       </c>
-      <c r="H41" s="4">
+      <c r="H41" s="5">
         <v>300885.84999999998</v>
       </c>
-      <c r="I41" s="4">
+      <c r="I41" s="5">
         <v>636972.75</v>
       </c>
     </row>
@@ -1530,16 +1530,16 @@
       <c r="C42">
         <v>193374</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="3">
         <v>1797</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="3">
         <v>1132</v>
       </c>
-      <c r="H42" s="4">
+      <c r="H42" s="5">
         <v>291151.5</v>
       </c>
-      <c r="I42" s="4">
+      <c r="I42" s="5">
         <v>610623.9</v>
       </c>
     </row>
@@ -1555,16 +1555,16 @@
       <c r="C43">
         <v>189479</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="3">
         <v>1941</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="3">
         <v>1030</v>
       </c>
-      <c r="H43" s="4">
+      <c r="H43" s="5">
         <v>293466.5</v>
       </c>
-      <c r="I43" s="4">
+      <c r="I43" s="5">
         <v>634048.44999999995</v>
       </c>
       <c r="J43">
@@ -1583,16 +1583,16 @@
       <c r="C44">
         <v>198436</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="3">
         <v>2001</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="3">
         <v>1020</v>
       </c>
-      <c r="H44" s="4">
+      <c r="H44" s="5">
         <v>291663.7</v>
       </c>
-      <c r="I44" s="4">
+      <c r="I44" s="5">
         <v>648379.65</v>
       </c>
     </row>
@@ -1608,16 +1608,16 @@
       <c r="C45">
         <v>205937</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="3">
         <v>1927</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="3">
         <v>1061</v>
       </c>
-      <c r="H45" s="4">
+      <c r="H45" s="5">
         <v>301899.95</v>
       </c>
-      <c r="I45" s="4">
+      <c r="I45" s="5">
         <v>651554.44999999995</v>
       </c>
     </row>
@@ -1633,16 +1633,16 @@
       <c r="C46">
         <v>210165</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="3">
         <v>2083</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="3">
         <v>939</v>
       </c>
-      <c r="H46" s="4">
+      <c r="H46" s="5">
         <v>306582.84999999998</v>
       </c>
-      <c r="I46" s="4">
+      <c r="I46" s="5">
         <v>663495.25</v>
       </c>
       <c r="J46">
@@ -1661,16 +1661,16 @@
       <c r="C47">
         <v>213504</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="3">
         <v>2040</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="3">
         <v>982</v>
       </c>
-      <c r="H47" s="4">
+      <c r="H47" s="5">
         <v>332689.25</v>
       </c>
-      <c r="I47" s="4">
+      <c r="I47" s="5">
         <v>707740.1</v>
       </c>
     </row>
@@ -1686,16 +1686,16 @@
       <c r="C48">
         <v>200351</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="3">
         <v>1937</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="3">
         <v>995</v>
       </c>
-      <c r="H48" s="4">
+      <c r="H48" s="5">
         <v>308821.40000000002</v>
       </c>
-      <c r="I48" s="4">
+      <c r="I48" s="5">
         <v>640857.94999999995</v>
       </c>
     </row>
@@ -1711,16 +1711,16 @@
       <c r="C49">
         <v>188771</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="3">
         <v>1903</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="3">
         <v>1066</v>
       </c>
-      <c r="H49" s="4">
+      <c r="H49" s="5">
         <v>293045</v>
       </c>
-      <c r="I49" s="4">
+      <c r="I49" s="5">
         <v>621289.1</v>
       </c>
       <c r="J49">
@@ -1739,19 +1739,19 @@
       <c r="C50">
         <v>190020</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="3">
         <v>1880</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="3">
         <v>1138</v>
       </c>
-      <c r="G50">
-        <v>618666231</v>
-      </c>
-      <c r="H50" s="4">
+      <c r="G50" s="3">
+        <v>322926113</v>
+      </c>
+      <c r="H50" s="5">
         <v>293266.25</v>
       </c>
-      <c r="I50" s="4">
+      <c r="I50" s="5">
         <v>620275.35</v>
       </c>
     </row>
@@ -1767,19 +1767,19 @@
       <c r="C51">
         <v>153618</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="3">
         <v>1444</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="3">
         <v>1040</v>
       </c>
-      <c r="G51">
-        <v>611582658</v>
-      </c>
-      <c r="H51" s="4">
+      <c r="G51" s="3">
+        <v>322531991</v>
+      </c>
+      <c r="H51" s="5">
         <v>229003.1</v>
       </c>
-      <c r="I51" s="4">
+      <c r="I51" s="5">
         <v>480814.95</v>
       </c>
     </row>
@@ -1795,19 +1795,19 @@
       <c r="C52">
         <v>193465</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="3">
         <v>2052</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="3">
         <v>1221</v>
       </c>
-      <c r="G52">
-        <v>703414523</v>
-      </c>
-      <c r="H52" s="4">
+      <c r="G52" s="3">
+        <v>366946278</v>
+      </c>
+      <c r="H52" s="5">
         <v>325548.75</v>
       </c>
-      <c r="I52" s="4">
+      <c r="I52" s="5">
         <v>670949.80000000005</v>
       </c>
       <c r="J52">
@@ -1826,19 +1826,19 @@
       <c r="C53">
         <v>188784</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="3">
         <v>2002</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="3">
         <v>1144</v>
       </c>
-      <c r="G53">
-        <v>658096634</v>
-      </c>
-      <c r="H53" s="4">
+      <c r="G53" s="3">
+        <v>345841502</v>
+      </c>
+      <c r="H53" s="5">
         <v>303223</v>
       </c>
-      <c r="I53" s="4">
+      <c r="I53" s="5">
         <v>673393.6</v>
       </c>
     </row>
@@ -1854,19 +1854,19 @@
       <c r="C54">
         <v>193247</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="3">
         <v>2159</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="3">
         <v>1122</v>
       </c>
-      <c r="G54">
-        <v>666290822</v>
-      </c>
-      <c r="H54" s="4">
+      <c r="G54" s="3">
+        <v>349968939</v>
+      </c>
+      <c r="H54" s="5">
         <v>327089.75</v>
       </c>
-      <c r="I54" s="4">
+      <c r="I54" s="5">
         <v>695953.3</v>
       </c>
     </row>
@@ -1882,19 +1882,19 @@
       <c r="C55">
         <v>202177</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="3">
         <v>1732</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="3">
         <v>1066</v>
       </c>
-      <c r="G55">
-        <v>691591467</v>
-      </c>
-      <c r="H55" s="4">
+      <c r="G55" s="3">
+        <v>360914394</v>
+      </c>
+      <c r="H55" s="5">
         <v>338914.65</v>
       </c>
-      <c r="I55" s="4">
+      <c r="I55" s="5">
         <v>726871.5</v>
       </c>
       <c r="J55">
@@ -1913,19 +1913,19 @@
       <c r="C56">
         <v>219571</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="3">
         <v>2119</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="3">
         <v>1067</v>
       </c>
-      <c r="G56">
-        <v>640954040</v>
-      </c>
-      <c r="H56" s="4">
+      <c r="G56" s="3">
+        <v>337062410</v>
+      </c>
+      <c r="H56" s="5">
         <v>347969.1</v>
       </c>
-      <c r="I56" s="4">
+      <c r="I56" s="5">
         <v>761326.35</v>
       </c>
     </row>
@@ -1941,19 +1941,19 @@
       <c r="C57">
         <v>226244</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="3">
         <v>1984</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="3">
         <v>1067</v>
       </c>
-      <c r="G57">
-        <v>722876467</v>
-      </c>
-      <c r="H57" s="4">
+      <c r="G57" s="3">
+        <v>380735368</v>
+      </c>
+      <c r="H57" s="5">
         <v>376722.25</v>
       </c>
-      <c r="I57" s="4">
+      <c r="I57" s="5">
         <v>790726.55</v>
       </c>
     </row>
@@ -1969,19 +1969,19 @@
       <c r="C58">
         <v>220090</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="3">
         <v>1979</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="3">
         <v>1009</v>
       </c>
-      <c r="G58">
-        <v>691996499</v>
-      </c>
-      <c r="H58" s="4">
+      <c r="G58" s="3">
+        <v>359134937</v>
+      </c>
+      <c r="H58" s="5">
         <v>360321.75</v>
       </c>
-      <c r="I58" s="4">
+      <c r="I58" s="5">
         <v>791604.65</v>
       </c>
       <c r="J58">
@@ -2000,19 +2000,19 @@
       <c r="C59">
         <v>230386</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="3">
         <v>2028</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="3">
         <v>1091</v>
       </c>
-      <c r="G59">
-        <v>695837456</v>
-      </c>
-      <c r="H59" s="4">
+      <c r="G59" s="3">
+        <v>365097266</v>
+      </c>
+      <c r="H59" s="5">
         <v>378370.15</v>
       </c>
-      <c r="I59" s="4">
+      <c r="I59" s="5">
         <v>800063.85</v>
       </c>
     </row>
@@ -2028,19 +2028,19 @@
       <c r="C60">
         <v>228876</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="3">
         <v>2018</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="3">
         <v>1121.5</v>
       </c>
-      <c r="G60">
-        <v>696941324</v>
-      </c>
-      <c r="H60" s="4">
+      <c r="G60" s="3">
+        <v>365214795</v>
+      </c>
+      <c r="H60" s="5">
         <v>355404.6</v>
       </c>
-      <c r="I60" s="4">
+      <c r="I60" s="5">
         <v>745613.1</v>
       </c>
     </row>
@@ -2056,19 +2056,19 @@
       <c r="C61">
         <v>214686</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="3">
         <v>2141</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="3">
         <v>1152</v>
       </c>
-      <c r="G61">
-        <v>711732577</v>
-      </c>
-      <c r="H61" s="4">
+      <c r="G61" s="3">
+        <v>375202518</v>
+      </c>
+      <c r="H61" s="5">
         <v>346669.25</v>
       </c>
-      <c r="I61" s="4">
+      <c r="I61" s="5">
         <v>712260</v>
       </c>
       <c r="J61">
@@ -2087,22 +2087,22 @@
       <c r="C62">
         <v>207414</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="3">
         <v>1982</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="3">
         <v>1200</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="3">
         <v>67381</v>
       </c>
-      <c r="G62">
-        <v>670749623</v>
-      </c>
-      <c r="H62" s="4">
+      <c r="G62" s="3">
+        <v>349971928</v>
+      </c>
+      <c r="H62" s="5">
         <v>324506.34999999998</v>
       </c>
-      <c r="I62" s="4">
+      <c r="I62" s="5">
         <v>691602</v>
       </c>
     </row>
@@ -2118,22 +2118,22 @@
       <c r="C63">
         <v>171389</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="3">
         <v>1583</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="3">
         <v>1096</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="3">
         <v>63366</v>
       </c>
-      <c r="G63">
-        <v>652813321</v>
-      </c>
-      <c r="H63" s="4">
+      <c r="G63" s="3">
+        <v>339943962</v>
+      </c>
+      <c r="H63" s="5">
         <v>290642.25</v>
       </c>
-      <c r="I63" s="4">
+      <c r="I63" s="5">
         <v>649243</v>
       </c>
     </row>
@@ -2149,22 +2149,22 @@
       <c r="C64">
         <v>206836</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="3">
         <v>1827</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="3">
         <v>1244</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="3">
         <v>66773</v>
       </c>
-      <c r="G64">
-        <v>744893265</v>
-      </c>
-      <c r="H64" s="4">
+      <c r="G64" s="3">
+        <v>387460245</v>
+      </c>
+      <c r="H64" s="5">
         <v>306467.05</v>
       </c>
-      <c r="I64" s="4">
+      <c r="I64" s="5">
         <v>629939.15</v>
       </c>
       <c r="J64">
@@ -2183,22 +2183,22 @@
       <c r="C65">
         <v>212605</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="3">
         <v>2015</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="3">
         <v>1142</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="3">
         <v>66815</v>
       </c>
-      <c r="G65">
-        <v>649761313</v>
-      </c>
-      <c r="H65" s="4">
+      <c r="G65" s="3">
+        <v>339124277</v>
+      </c>
+      <c r="H65" s="5">
         <v>304145.75</v>
       </c>
-      <c r="I65" s="4">
+      <c r="I65" s="5">
         <v>679657.25</v>
       </c>
     </row>
@@ -2214,22 +2214,22 @@
       <c r="C66">
         <v>216591</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="3">
         <v>2067</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="3">
         <v>1157</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="3">
         <v>70955</v>
       </c>
-      <c r="G66">
-        <v>726177221</v>
-      </c>
-      <c r="H66" s="4">
+      <c r="G66" s="3">
+        <v>376194004</v>
+      </c>
+      <c r="H66" s="5">
         <v>312670.25</v>
       </c>
-      <c r="I66" s="4">
+      <c r="I66" s="5">
         <v>681544.55</v>
       </c>
     </row>
@@ -2245,22 +2245,22 @@
       <c r="C67">
         <v>224672</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="3">
         <v>2030</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="3">
         <v>1033</v>
       </c>
-      <c r="F67">
+      <c r="F67" s="3">
         <v>67448</v>
       </c>
-      <c r="G67">
-        <v>733871480</v>
-      </c>
-      <c r="H67" s="4">
+      <c r="G67" s="3">
+        <v>380846199</v>
+      </c>
+      <c r="H67" s="5">
         <v>322983.65000000002</v>
       </c>
-      <c r="I67" s="4">
+      <c r="I67" s="5">
         <v>716170.75</v>
       </c>
       <c r="J67">
@@ -2279,22 +2279,22 @@
       <c r="C68">
         <v>238526</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="3">
         <v>2094</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="3">
         <v>1081</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="3">
         <v>74392</v>
       </c>
-      <c r="G68">
-        <v>684711693</v>
-      </c>
-      <c r="H68" s="4">
+      <c r="G68" s="3">
+        <v>356999367</v>
+      </c>
+      <c r="H68" s="5">
         <v>328746.15000000002</v>
       </c>
-      <c r="I68" s="4">
+      <c r="I68" s="5">
         <v>716319.4</v>
       </c>
     </row>
@@ -2310,22 +2310,22 @@
       <c r="C69">
         <v>243152</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="3">
         <v>2021</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="3">
         <v>1085</v>
       </c>
-      <c r="F69">
+      <c r="F69" s="3">
         <v>72710</v>
       </c>
-      <c r="G69">
-        <v>756646800</v>
-      </c>
-      <c r="H69" s="4">
+      <c r="G69" s="3">
+        <v>393423711</v>
+      </c>
+      <c r="H69" s="5">
         <v>335683.1</v>
       </c>
-      <c r="I69" s="4">
+      <c r="I69" s="5">
         <v>714710.2</v>
       </c>
     </row>
@@ -2341,22 +2341,22 @@
       <c r="C70">
         <v>238691</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="3">
         <v>2109</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="3">
         <v>1021</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="3">
         <v>73041</v>
       </c>
-      <c r="G70">
-        <v>701223948</v>
-      </c>
-      <c r="H70" s="4">
+      <c r="G70" s="3">
+        <v>361667995</v>
+      </c>
+      <c r="H70" s="5">
         <v>334648.75</v>
       </c>
-      <c r="I70" s="4">
+      <c r="I70" s="5">
         <v>742563.5</v>
       </c>
       <c r="J70">
@@ -2375,22 +2375,22 @@
       <c r="C71">
         <v>253018</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="3">
         <v>2060</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="3">
         <v>1102</v>
       </c>
-      <c r="F71">
+      <c r="F71" s="3">
         <v>75239</v>
       </c>
-      <c r="G71">
-        <v>734262577</v>
-      </c>
-      <c r="H71" s="4">
+      <c r="G71" s="3">
+        <v>378606570</v>
+      </c>
+      <c r="H71" s="5">
         <v>341598.3</v>
       </c>
-      <c r="I71" s="4">
+      <c r="I71" s="5">
         <v>735546.25</v>
       </c>
     </row>
@@ -2406,22 +2406,22 @@
       <c r="C72">
         <v>244005</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="3">
         <v>2078</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="3">
         <v>1043</v>
       </c>
-      <c r="F72">
+      <c r="F72" s="3">
         <v>72647</v>
       </c>
-      <c r="G72">
-        <v>706280597</v>
-      </c>
-      <c r="H72" s="4">
+      <c r="G72" s="3">
+        <v>367532750</v>
+      </c>
+      <c r="H72" s="5">
         <v>353099.4</v>
       </c>
-      <c r="I72" s="4">
+      <c r="I72" s="5">
         <v>736340.15</v>
       </c>
     </row>
@@ -2437,22 +2437,22 @@
       <c r="C73">
         <v>232256</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="3">
         <v>2132</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="3">
         <v>1124</v>
       </c>
-      <c r="F73">
+      <c r="F73" s="3">
         <v>77396</v>
       </c>
-      <c r="G73">
-        <v>698159086</v>
-      </c>
-      <c r="H73" s="4">
+      <c r="G73" s="3">
+        <v>367824048</v>
+      </c>
+      <c r="H73" s="5">
         <v>315261.84999999998</v>
       </c>
-      <c r="I73" s="4">
+      <c r="I73" s="5">
         <v>661402.30000000005</v>
       </c>
       <c r="J73">
@@ -2471,22 +2471,22 @@
       <c r="C74">
         <v>240096</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="3">
         <v>2110</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="3">
         <v>1171</v>
       </c>
-      <c r="F74">
+      <c r="F74" s="3">
         <v>73778</v>
       </c>
-      <c r="G74">
-        <v>699183558</v>
-      </c>
-      <c r="H74" s="4">
+      <c r="G74" s="3">
+        <v>360538865</v>
+      </c>
+      <c r="H74" s="5">
         <v>305094.25</v>
       </c>
-      <c r="I74" s="4">
+      <c r="I74" s="5">
         <v>652236.19999999995</v>
       </c>
     </row>
@@ -2502,22 +2502,22 @@
       <c r="C75">
         <v>184390</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="3">
         <v>1644</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="3">
         <v>1069</v>
       </c>
-      <c r="F75">
+      <c r="F75" s="3">
         <v>72878</v>
       </c>
-      <c r="G75">
-        <v>670604530</v>
-      </c>
-      <c r="H75" s="4">
+      <c r="G75" s="3">
+        <v>346603010</v>
+      </c>
+      <c r="H75" s="5">
         <v>290747.15000000002</v>
       </c>
-      <c r="I75" s="4">
+      <c r="I75" s="5">
         <v>613725.69999999995</v>
       </c>
     </row>
@@ -2533,22 +2533,22 @@
       <c r="C76">
         <v>222532</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="3">
         <v>2003</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="3">
         <v>1213</v>
       </c>
-      <c r="F76">
+      <c r="F76" s="3">
         <v>72600</v>
       </c>
-      <c r="G76">
-        <v>686771459</v>
-      </c>
-      <c r="H76" s="4">
+      <c r="G76" s="3">
+        <v>352306150</v>
+      </c>
+      <c r="H76" s="5">
         <v>282634.7</v>
       </c>
-      <c r="I76" s="4">
+      <c r="I76" s="5">
         <v>583923</v>
       </c>
       <c r="J76">
@@ -2567,22 +2567,22 @@
       <c r="C77">
         <v>243401</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="3">
         <v>2099</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="3">
         <v>1174</v>
       </c>
-      <c r="F77">
+      <c r="F77" s="3">
         <v>73096</v>
       </c>
-      <c r="G77">
-        <v>693912152</v>
-      </c>
-      <c r="H77" s="4">
+      <c r="G77" s="3">
+        <v>355719099</v>
+      </c>
+      <c r="H77" s="5">
         <v>273625.7</v>
       </c>
-      <c r="I77" s="4">
+      <c r="I77" s="5">
         <v>605466.35</v>
       </c>
     </row>
@@ -2598,22 +2598,22 @@
       <c r="C78">
         <v>238942</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="3">
         <v>2038</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="3">
         <v>1162</v>
       </c>
-      <c r="F78">
+      <c r="F78" s="3">
         <v>76682</v>
       </c>
-      <c r="G78">
-        <v>686272556</v>
-      </c>
-      <c r="H78" s="4">
+      <c r="G78" s="3">
+        <v>351101493</v>
+      </c>
+      <c r="H78" s="5">
         <v>310060.84999999998</v>
       </c>
-      <c r="I78" s="4">
+      <c r="I78" s="5">
         <v>686847.8</v>
       </c>
     </row>
@@ -2629,22 +2629,22 @@
       <c r="C79">
         <v>223223</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="3">
         <v>2122</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="3">
         <v>1048</v>
       </c>
-      <c r="F79">
+      <c r="F79" s="3">
         <v>76312</v>
       </c>
-      <c r="G79">
-        <v>638655349</v>
-      </c>
-      <c r="H79" s="4">
+      <c r="G79" s="3">
+        <v>326916797</v>
+      </c>
+      <c r="H79" s="5">
         <v>285488.55</v>
       </c>
-      <c r="I79" s="4">
+      <c r="I79" s="5">
         <v>632280.1</v>
       </c>
       <c r="J79">
@@ -2663,22 +2663,22 @@
       <c r="C80">
         <v>265104</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="3">
         <v>2258</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="3">
         <v>1106</v>
       </c>
-      <c r="F80">
+      <c r="F80" s="3">
         <v>79359</v>
       </c>
-      <c r="G80">
-        <v>672559758</v>
-      </c>
-      <c r="H80" s="4">
+      <c r="G80" s="3">
+        <v>345664515</v>
+      </c>
+      <c r="H80" s="5">
         <v>321213.45</v>
       </c>
-      <c r="I80" s="4">
+      <c r="I80" s="5">
         <v>698159.3</v>
       </c>
     </row>
@@ -2694,22 +2694,22 @@
       <c r="C81">
         <v>247873</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="3">
         <v>2168</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="3">
         <v>1079</v>
       </c>
-      <c r="F81">
+      <c r="F81" s="3">
         <v>84065</v>
       </c>
-      <c r="G81">
-        <v>686869185</v>
-      </c>
-      <c r="H81" s="4">
+      <c r="G81" s="3">
+        <v>353761687</v>
+      </c>
+      <c r="H81" s="5">
         <v>348832.55</v>
       </c>
-      <c r="I81" s="4">
+      <c r="I81" s="5">
         <v>757068.85</v>
       </c>
     </row>
@@ -2725,22 +2725,22 @@
       <c r="C82">
         <v>247209</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="3">
         <v>2258</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="3">
         <v>1004</v>
       </c>
-      <c r="F82">
+      <c r="F82" s="3">
         <v>79603</v>
       </c>
-      <c r="G82">
-        <v>654594113</v>
-      </c>
-      <c r="H82" s="4">
+      <c r="G82" s="3">
+        <v>334712210</v>
+      </c>
+      <c r="H82" s="5">
         <v>319538.65000000002</v>
       </c>
-      <c r="I82" s="4">
+      <c r="I82" s="5">
         <v>692889.9</v>
       </c>
       <c r="J82">
@@ -2759,22 +2759,22 @@
       <c r="C83">
         <v>276913</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="3">
         <v>2124</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="3">
         <v>1083</v>
       </c>
-      <c r="F83">
+      <c r="F83" s="3">
         <v>81152</v>
       </c>
-      <c r="G83">
-        <v>720244757</v>
-      </c>
-      <c r="H83" s="4">
+      <c r="G83" s="3">
+        <v>370162924</v>
+      </c>
+      <c r="H83" s="5">
         <v>329035.3</v>
       </c>
-      <c r="I83" s="4">
+      <c r="I83" s="5">
         <v>706308.25</v>
       </c>
     </row>
@@ -2790,22 +2790,22 @@
       <c r="C84">
         <v>231153</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="3">
         <v>1882</v>
       </c>
-      <c r="E84">
+      <c r="E84" s="3">
         <v>1026</v>
       </c>
-      <c r="F84">
+      <c r="F84" s="3">
         <v>73599</v>
       </c>
-      <c r="G84">
-        <v>638680569</v>
-      </c>
-      <c r="H84" s="4">
+      <c r="G84" s="3">
+        <v>328837430</v>
+      </c>
+      <c r="H84" s="5">
         <v>314281.65000000002</v>
       </c>
-      <c r="I84" s="4">
+      <c r="I84" s="5">
         <v>660046.5</v>
       </c>
     </row>
@@ -2821,22 +2821,22 @@
       <c r="C85">
         <v>205816</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="3">
         <v>1787</v>
       </c>
-      <c r="E85">
+      <c r="E85" s="3">
         <v>1124</v>
       </c>
-      <c r="F85">
+      <c r="F85" s="3">
         <v>66935</v>
       </c>
-      <c r="G85">
-        <v>693703385</v>
-      </c>
-      <c r="H85" s="4">
+      <c r="G85" s="3">
+        <v>362658939</v>
+      </c>
+      <c r="H85" s="5">
         <v>258273.05</v>
       </c>
-      <c r="I85" s="4">
+      <c r="I85" s="5">
         <v>561033.25</v>
       </c>
       <c r="J85">
@@ -2855,22 +2855,22 @@
       <c r="C86">
         <v>187768</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="3">
         <v>1612</v>
       </c>
-      <c r="E86">
+      <c r="E86" s="3">
         <v>1146</v>
       </c>
-      <c r="F86">
+      <c r="F86" s="3">
         <v>57217</v>
       </c>
-      <c r="G86">
-        <v>659514240</v>
-      </c>
-      <c r="H86" s="4">
+      <c r="G86" s="3">
+        <v>338031836</v>
+      </c>
+      <c r="H86" s="5">
         <v>266625.09999999998</v>
       </c>
-      <c r="I86" s="4">
+      <c r="I86" s="5">
         <v>587004.19999999995</v>
       </c>
     </row>
@@ -2886,22 +2886,22 @@
       <c r="C87">
         <v>141938</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="3">
         <v>1345</v>
       </c>
-      <c r="E87">
+      <c r="E87" s="3">
         <v>1059</v>
       </c>
-      <c r="F87">
+      <c r="F87" s="3">
         <v>53086</v>
       </c>
-      <c r="G87">
-        <v>610087720</v>
-      </c>
-      <c r="H87" s="4">
+      <c r="G87" s="3">
+        <v>314156051</v>
+      </c>
+      <c r="H87" s="5">
         <v>205731.8</v>
       </c>
-      <c r="I87" s="4">
+      <c r="I87" s="5">
         <v>413910.3</v>
       </c>
     </row>
@@ -2917,22 +2917,22 @@
       <c r="C88">
         <v>175472</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="3">
         <v>1672</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="3">
         <v>1201</v>
       </c>
-      <c r="F88">
+      <c r="F88" s="3">
         <v>57248</v>
       </c>
-      <c r="G88">
-        <v>659530699</v>
-      </c>
-      <c r="H88" s="4">
+      <c r="G88" s="3">
+        <v>336667100</v>
+      </c>
+      <c r="H88" s="5">
         <v>244793.9</v>
       </c>
-      <c r="I88" s="4">
+      <c r="I88" s="5">
         <v>526487.05000000005</v>
       </c>
       <c r="J88">
@@ -2951,22 +2951,22 @@
       <c r="C89">
         <v>199043</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="3">
         <v>1725</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="3">
         <v>1115</v>
       </c>
-      <c r="F89">
+      <c r="F89" s="3">
         <v>60722</v>
       </c>
-      <c r="G89">
-        <v>659770869</v>
-      </c>
-      <c r="H89" s="4">
+      <c r="G89" s="3">
+        <v>334753997</v>
+      </c>
+      <c r="H89" s="5">
         <v>250449.9</v>
       </c>
-      <c r="I89" s="4">
+      <c r="I89" s="5">
         <v>532124.15</v>
       </c>
     </row>
@@ -2982,22 +2982,22 @@
       <c r="C90">
         <v>204375</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="3">
         <v>1767</v>
       </c>
-      <c r="E90">
+      <c r="E90" s="3">
         <v>1050</v>
       </c>
-      <c r="F90">
+      <c r="F90" s="3">
         <v>58883</v>
       </c>
-      <c r="G90">
-        <v>655481699</v>
-      </c>
-      <c r="H90" s="4">
+      <c r="G90" s="3">
+        <v>336031350</v>
+      </c>
+      <c r="H90" s="5">
         <v>268663.05</v>
       </c>
-      <c r="I90" s="4">
+      <c r="I90" s="5">
         <v>574827.80000000005</v>
       </c>
     </row>
@@ -3013,22 +3013,22 @@
       <c r="C91">
         <v>211136</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="3">
         <v>1729</v>
       </c>
-      <c r="E91">
+      <c r="E91" s="3">
         <v>1050</v>
       </c>
-      <c r="F91">
+      <c r="F91" s="3">
         <v>59533</v>
       </c>
-      <c r="G91">
-        <v>648004095</v>
-      </c>
-      <c r="H91" s="4">
+      <c r="G91" s="3">
+        <v>331269970</v>
+      </c>
+      <c r="H91" s="5">
         <v>267696.90000000002</v>
       </c>
-      <c r="I91" s="4">
+      <c r="I91" s="5">
         <v>551679.69999999995</v>
       </c>
       <c r="J91">
@@ -3047,22 +3047,22 @@
       <c r="C92">
         <v>212279</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="3">
         <v>1875</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="3">
         <v>1052</v>
       </c>
-      <c r="F92">
+      <c r="F92" s="3">
         <v>64857</v>
       </c>
-      <c r="G92">
-        <v>681107990</v>
-      </c>
-      <c r="H92" s="4">
+      <c r="G92" s="3">
+        <v>348137883</v>
+      </c>
+      <c r="H92" s="5">
         <v>268295.5</v>
       </c>
-      <c r="I92" s="4">
+      <c r="I92" s="5">
         <v>576203.25</v>
       </c>
     </row>
@@ -3078,22 +3078,22 @@
       <c r="C93">
         <v>213301</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="3">
         <v>1900</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="3">
         <v>1072</v>
       </c>
-      <c r="F93">
+      <c r="F93" s="3">
         <v>62573</v>
       </c>
-      <c r="G93">
-        <v>664008386</v>
-      </c>
-      <c r="H93" s="4">
+      <c r="G93" s="3">
+        <v>340925430</v>
+      </c>
+      <c r="H93" s="5">
         <v>285675.75</v>
       </c>
-      <c r="I93" s="4">
+      <c r="I93" s="5">
         <v>612581.5</v>
       </c>
     </row>
@@ -3109,22 +3109,22 @@
       <c r="C94">
         <v>225898</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="3">
         <v>1849</v>
       </c>
-      <c r="E94">
+      <c r="E94" s="3">
         <v>990</v>
       </c>
-      <c r="F94">
+      <c r="F94" s="3">
         <v>64392</v>
       </c>
-      <c r="G94">
-        <v>701377120</v>
-      </c>
-      <c r="H94" s="4">
+      <c r="G94" s="3">
+        <v>357525320</v>
+      </c>
+      <c r="H94" s="5">
         <v>270270.05</v>
       </c>
-      <c r="I94" s="4">
+      <c r="I94" s="5">
         <v>583557</v>
       </c>
       <c r="J94">
@@ -3143,22 +3143,22 @@
       <c r="C95">
         <v>240755</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="3">
         <v>1848</v>
       </c>
-      <c r="E95">
+      <c r="E95" s="3">
         <v>1108</v>
       </c>
-      <c r="F95">
+      <c r="F95" s="3">
         <v>66811</v>
       </c>
-      <c r="G95">
-        <v>756625984</v>
-      </c>
-      <c r="H95" s="4">
+      <c r="G95" s="3">
+        <v>385082230</v>
+      </c>
+      <c r="H95" s="5">
         <v>305011.09999999998</v>
       </c>
-      <c r="I95" s="4">
+      <c r="I95" s="5">
         <v>647423.69999999995</v>
       </c>
     </row>
@@ -3174,22 +3174,22 @@
       <c r="C96">
         <v>234095</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="3">
         <v>1821</v>
       </c>
-      <c r="E96">
+      <c r="E96" s="3">
         <v>1077</v>
       </c>
-      <c r="F96">
+      <c r="F96" s="3">
         <v>61611</v>
       </c>
-      <c r="G96">
-        <v>669807189</v>
-      </c>
-      <c r="H96" s="4">
+      <c r="G96" s="3">
+        <v>341685188</v>
+      </c>
+      <c r="H96" s="5">
         <v>276711.40000000002</v>
       </c>
-      <c r="I96" s="4">
+      <c r="I96" s="5">
         <v>580206.15</v>
       </c>
     </row>
@@ -3205,22 +3205,22 @@
       <c r="C97">
         <v>224822</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="3">
         <v>1898</v>
       </c>
-      <c r="E97">
+      <c r="E97" s="3">
         <v>1094</v>
       </c>
-      <c r="F97">
+      <c r="F97" s="3">
         <v>67520</v>
       </c>
-      <c r="G97">
-        <v>781482762</v>
-      </c>
-      <c r="H97" s="4">
+      <c r="G97" s="3">
+        <v>405902757</v>
+      </c>
+      <c r="H97" s="5">
         <v>273978.90000000002</v>
       </c>
-      <c r="I97" s="4">
+      <c r="I97" s="5">
         <v>562989.75</v>
       </c>
       <c r="J97">
@@ -3239,22 +3239,22 @@
       <c r="C98">
         <v>222279</v>
       </c>
-      <c r="D98">
+      <c r="D98" s="3">
         <v>1990</v>
       </c>
-      <c r="E98">
+      <c r="E98" s="3">
         <v>1113</v>
       </c>
-      <c r="F98">
+      <c r="F98" s="3">
         <v>66440</v>
       </c>
-      <c r="G98">
-        <v>698415372</v>
-      </c>
-      <c r="H98" s="4">
+      <c r="G98" s="3">
+        <v>355582071</v>
+      </c>
+      <c r="H98" s="5">
         <v>270276.25</v>
       </c>
-      <c r="I98" s="4">
+      <c r="I98" s="5">
         <v>572969.15</v>
       </c>
     </row>
@@ -3270,22 +3270,22 @@
       <c r="C99">
         <v>182455</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="3">
         <v>1533</v>
       </c>
-      <c r="E99">
+      <c r="E99" s="3">
         <v>1010</v>
       </c>
-      <c r="F99">
+      <c r="F99" s="3">
         <v>58736</v>
       </c>
-      <c r="G99">
-        <v>661378907</v>
-      </c>
-      <c r="H99" s="4">
+      <c r="G99" s="3">
+        <v>340191304</v>
+      </c>
+      <c r="H99" s="5">
         <v>250518.8</v>
       </c>
-      <c r="I99" s="4">
+      <c r="I99" s="5">
         <v>525458.6</v>
       </c>
     </row>
@@ -3301,22 +3301,22 @@
       <c r="C100">
         <v>231755</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="3">
         <v>1909</v>
       </c>
-      <c r="E100">
+      <c r="E100" s="3">
         <v>1141</v>
       </c>
-      <c r="F100">
+      <c r="F100" s="3">
         <v>67528</v>
       </c>
-      <c r="G100">
-        <v>738819840</v>
-      </c>
-      <c r="H100" s="4">
+      <c r="G100" s="3">
+        <v>373898934</v>
+      </c>
+      <c r="H100" s="5">
         <v>268501</v>
       </c>
-      <c r="I100" s="4">
+      <c r="I100" s="5">
         <v>550249.80000000005</v>
       </c>
       <c r="J100">
@@ -3335,22 +3335,22 @@
       <c r="C101">
         <v>242231</v>
       </c>
-      <c r="D101">
+      <c r="D101" s="3">
         <v>1952</v>
       </c>
-      <c r="E101">
+      <c r="E101" s="3">
         <v>1046</v>
       </c>
-      <c r="F101">
+      <c r="F101" s="3">
         <v>65744</v>
       </c>
-      <c r="G101">
-        <v>713324755</v>
-      </c>
-      <c r="H101" s="4">
+      <c r="G101" s="3">
+        <v>362811242</v>
+      </c>
+      <c r="H101" s="5">
         <v>283940.65000000002</v>
       </c>
-      <c r="I101" s="4">
+      <c r="I101" s="5">
         <v>595283.69999999995</v>
       </c>
     </row>
@@ -3366,22 +3366,22 @@
       <c r="C102">
         <v>254234</v>
       </c>
-      <c r="D102">
+      <c r="D102" s="3">
         <v>1968</v>
       </c>
-      <c r="E102">
+      <c r="E102" s="3">
         <v>1069</v>
       </c>
-      <c r="F102">
+      <c r="F102" s="3">
         <v>71089</v>
       </c>
-      <c r="G102">
-        <v>719581748</v>
-      </c>
-      <c r="H102" s="4">
+      <c r="G102" s="3">
+        <v>362859071</v>
+      </c>
+      <c r="H102" s="5">
         <v>337683.35</v>
       </c>
-      <c r="I102" s="4">
+      <c r="I102" s="5">
         <v>689420.7</v>
       </c>
     </row>
@@ -3397,22 +3397,22 @@
       <c r="C103">
         <v>267561</v>
       </c>
-      <c r="D103">
+      <c r="D103" s="3">
         <v>2057</v>
       </c>
-      <c r="E103">
+      <c r="E103" s="3">
         <v>971</v>
       </c>
-      <c r="F103">
+      <c r="F103" s="3">
         <v>70233</v>
       </c>
-      <c r="G103">
-        <v>710284137</v>
-      </c>
-      <c r="H103" s="4">
+      <c r="G103" s="3">
+        <v>358797790</v>
+      </c>
+      <c r="H103" s="5">
         <v>351350.8</v>
       </c>
-      <c r="I103" s="4">
+      <c r="I103" s="5">
         <v>730317.85</v>
       </c>
       <c r="J103">
@@ -3431,22 +3431,22 @@
       <c r="C104">
         <v>261798</v>
       </c>
-      <c r="D104">
+      <c r="D104" s="3">
         <v>2071</v>
       </c>
-      <c r="E104">
+      <c r="E104" s="3">
         <v>1032</v>
       </c>
-      <c r="F104">
+      <c r="F104" s="3">
         <v>71868</v>
       </c>
-      <c r="G104">
-        <v>738375634</v>
-      </c>
-      <c r="H104" s="4">
+      <c r="G104" s="3">
+        <v>372945647</v>
+      </c>
+      <c r="H104" s="5">
         <v>354944.7</v>
       </c>
-      <c r="I104" s="4">
+      <c r="I104" s="5">
         <v>730745.6</v>
       </c>
     </row>
@@ -3462,22 +3462,22 @@
       <c r="C105">
         <v>290121</v>
       </c>
-      <c r="D105">
+      <c r="D105" s="3">
         <v>2096</v>
       </c>
-      <c r="E105">
+      <c r="E105" s="3">
         <v>1021</v>
       </c>
-      <c r="F105">
+      <c r="F105" s="3">
         <v>78314</v>
       </c>
-      <c r="G105">
-        <v>713471909</v>
-      </c>
-      <c r="H105" s="4">
+      <c r="G105" s="3">
+        <v>362330788</v>
+      </c>
+      <c r="H105" s="5">
         <v>357145.8</v>
       </c>
-      <c r="I105" s="4">
+      <c r="I105" s="5">
         <v>763837.2</v>
       </c>
     </row>
@@ -3493,22 +3493,22 @@
       <c r="C106">
         <v>280230</v>
       </c>
-      <c r="D106">
+      <c r="D106" s="3">
         <v>2057</v>
       </c>
-      <c r="E106">
+      <c r="E106" s="3">
         <v>1004</v>
       </c>
-      <c r="F106">
+      <c r="F106" s="3">
         <v>72810</v>
       </c>
-      <c r="G106">
-        <v>718567323</v>
-      </c>
-      <c r="H106" s="4">
+      <c r="G106" s="3">
+        <v>365493822</v>
+      </c>
+      <c r="H106" s="5">
         <v>331828.55</v>
       </c>
-      <c r="I106" s="4">
+      <c r="I106" s="5">
         <v>711613</v>
       </c>
       <c r="J106">
@@ -3527,22 +3527,22 @@
       <c r="C107">
         <v>274169</v>
       </c>
-      <c r="D107">
+      <c r="D107" s="3">
         <v>1912</v>
       </c>
-      <c r="E107">
+      <c r="E107" s="3">
         <v>1127</v>
       </c>
-      <c r="F107">
+      <c r="F107" s="3">
         <v>74601</v>
       </c>
-      <c r="G107">
-        <v>748325652</v>
-      </c>
-      <c r="H107" s="4">
+      <c r="G107" s="3">
+        <v>381834177</v>
+      </c>
+      <c r="H107" s="5">
         <v>324143.84999999998</v>
       </c>
-      <c r="I107" s="4">
+      <c r="I107" s="5">
         <v>682384.5</v>
       </c>
     </row>
@@ -3558,22 +3558,22 @@
       <c r="C108">
         <v>273043</v>
       </c>
-      <c r="D108">
+      <c r="D108" s="3">
         <v>2091</v>
       </c>
-      <c r="E108">
+      <c r="E108" s="3">
         <v>1114</v>
       </c>
-      <c r="F108">
+      <c r="F108" s="3">
         <v>72463</v>
       </c>
-      <c r="G108">
-        <v>685749457</v>
-      </c>
-      <c r="H108" s="4">
+      <c r="G108" s="3">
+        <v>352858444</v>
+      </c>
+      <c r="H108" s="5">
         <v>322646.05</v>
       </c>
-      <c r="I108" s="4">
+      <c r="I108" s="5">
         <v>666970.5</v>
       </c>
     </row>
@@ -3589,22 +3589,22 @@
       <c r="C109">
         <v>253003</v>
       </c>
-      <c r="D109">
+      <c r="D109" s="3">
         <v>2062</v>
       </c>
-      <c r="E109">
+      <c r="E109" s="3">
         <v>1085</v>
       </c>
-      <c r="F109">
+      <c r="F109" s="3">
         <v>76563</v>
       </c>
-      <c r="G109">
-        <v>789581031</v>
-      </c>
-      <c r="H109" s="4">
+      <c r="G109" s="3">
+        <v>409932613</v>
+      </c>
+      <c r="H109" s="5">
         <v>299791</v>
       </c>
-      <c r="I109" s="4">
+      <c r="I109" s="5">
         <v>612651.69999999995</v>
       </c>
       <c r="J109">
@@ -3623,22 +3623,22 @@
       <c r="C110">
         <v>283683</v>
       </c>
-      <c r="D110">
+      <c r="D110" s="3">
         <v>2097</v>
       </c>
-      <c r="E110">
+      <c r="E110" s="3">
         <v>1174</v>
       </c>
-      <c r="F110">
+      <c r="F110" s="3">
         <v>75501</v>
       </c>
-      <c r="G110">
-        <v>668198381</v>
-      </c>
-      <c r="H110" s="4">
+      <c r="G110" s="3">
+        <v>342941243</v>
+      </c>
+      <c r="H110" s="5">
         <v>305398.55</v>
       </c>
-      <c r="I110" s="4">
+      <c r="I110" s="5">
         <v>660517.80000000005</v>
       </c>
     </row>
@@ -3654,22 +3654,22 @@
       <c r="C111">
         <v>227842</v>
       </c>
-      <c r="D111">
+      <c r="D111" s="3">
         <v>1529</v>
       </c>
-      <c r="E111">
+      <c r="E111" s="3">
         <v>1110</v>
       </c>
-      <c r="F111">
+      <c r="F111" s="3">
         <v>69088</v>
       </c>
-      <c r="G111">
-        <v>665856867</v>
-      </c>
-      <c r="H111" s="4">
+      <c r="G111" s="3">
+        <v>343118998</v>
+      </c>
+      <c r="H111" s="5">
         <v>265749.75</v>
       </c>
-      <c r="I111" s="4">
+      <c r="I111" s="5">
         <v>554912.80000000005</v>
       </c>
     </row>
@@ -3685,22 +3685,22 @@
       <c r="C112">
         <v>281487</v>
       </c>
-      <c r="D112">
+      <c r="D112" s="3">
         <v>1840</v>
       </c>
-      <c r="E112">
+      <c r="E112" s="3">
         <v>1223</v>
       </c>
-      <c r="F112">
+      <c r="F112" s="3">
         <v>73268</v>
       </c>
-      <c r="G112">
-        <v>772377895</v>
-      </c>
-      <c r="H112" s="4">
+      <c r="G112" s="3">
+        <v>391962631</v>
+      </c>
+      <c r="H112" s="5">
         <v>287993.15000000002</v>
       </c>
-      <c r="I112" s="4">
+      <c r="I112" s="5">
         <v>600796</v>
       </c>
       <c r="J112">
@@ -3719,22 +3719,22 @@
       <c r="C113">
         <v>252042</v>
       </c>
-      <c r="D113">
+      <c r="D113" s="3">
         <v>2206</v>
       </c>
-      <c r="E113">
+      <c r="E113" s="3">
         <v>1141</v>
       </c>
-      <c r="F113">
+      <c r="F113" s="3">
         <v>76414</v>
       </c>
-      <c r="G113">
-        <v>720285518</v>
-      </c>
-      <c r="H113" s="4">
+      <c r="G113" s="3">
+        <v>366085450</v>
+      </c>
+      <c r="H113" s="5">
         <v>290426.15000000002</v>
       </c>
-      <c r="I113" s="4">
+      <c r="I113" s="5">
         <v>617272.5</v>
       </c>
     </row>
@@ -3750,22 +3750,22 @@
       <c r="C114">
         <v>279944</v>
       </c>
-      <c r="D114">
+      <c r="D114" s="3">
         <v>2119</v>
       </c>
-      <c r="E114">
+      <c r="E114" s="3">
         <v>1107</v>
       </c>
-      <c r="F114">
+      <c r="F114" s="3">
         <v>77430</v>
       </c>
-      <c r="G114">
-        <v>680935785</v>
-      </c>
-      <c r="H114" s="4">
+      <c r="G114" s="3">
+        <v>345513546</v>
+      </c>
+      <c r="H114" s="5">
         <v>317805.90000000002</v>
       </c>
-      <c r="I114" s="4">
+      <c r="I114" s="5">
         <v>692933.7</v>
       </c>
     </row>
@@ -3781,22 +3781,22 @@
       <c r="C115">
         <v>292216</v>
       </c>
-      <c r="D115">
+      <c r="D115" s="3">
         <v>2067</v>
       </c>
-      <c r="E115">
+      <c r="E115" s="3">
         <v>979</v>
       </c>
-      <c r="F115">
+      <c r="F115" s="3">
         <v>78511</v>
       </c>
-      <c r="G115">
-        <v>725063058</v>
-      </c>
-      <c r="H115" s="4">
+      <c r="G115" s="3">
+        <v>368895045</v>
+      </c>
+      <c r="H115" s="5">
         <v>291371.3</v>
       </c>
-      <c r="I115" s="4">
+      <c r="I115" s="5">
         <v>640794.6</v>
       </c>
       <c r="J115">
@@ -3815,22 +3815,22 @@
       <c r="C116">
         <v>286152</v>
       </c>
-      <c r="D116">
+      <c r="D116" s="3">
         <v>2228</v>
       </c>
-      <c r="E116">
+      <c r="E116" s="3">
         <v>1026</v>
       </c>
-      <c r="F116">
+      <c r="F116" s="3">
         <v>78830</v>
       </c>
-      <c r="G116">
-        <v>697763655</v>
-      </c>
-      <c r="H116" s="4">
+      <c r="G116" s="3">
+        <v>355516475</v>
+      </c>
+      <c r="H116" s="5">
         <v>313026</v>
       </c>
-      <c r="I116" s="4">
+      <c r="I116" s="5">
         <v>688325.55</v>
       </c>
     </row>
@@ -3846,22 +3846,22 @@
       <c r="C117">
         <v>309888</v>
       </c>
-      <c r="D117">
+      <c r="D117" s="3">
         <v>2143</v>
       </c>
-      <c r="E117">
+      <c r="E117" s="3">
         <v>971</v>
       </c>
-      <c r="F117">
+      <c r="F117" s="3">
         <v>83072</v>
       </c>
-      <c r="G117">
-        <v>722659082</v>
-      </c>
-      <c r="H117" s="4">
+      <c r="G117" s="3">
+        <v>369851786</v>
+      </c>
+      <c r="H117" s="5">
         <v>332293.05</v>
       </c>
-      <c r="I117" s="4">
+      <c r="I117" s="5">
         <v>723170.55</v>
       </c>
     </row>
@@ -3877,22 +3877,22 @@
       <c r="C118">
         <v>271799</v>
       </c>
-      <c r="D118">
+      <c r="D118" s="3">
         <v>1993</v>
       </c>
-      <c r="E118">
+      <c r="E118" s="3">
         <v>987</v>
       </c>
-      <c r="F118">
+      <c r="F118" s="3">
         <v>77459</v>
       </c>
-      <c r="G118">
-        <v>714662789</v>
-      </c>
-      <c r="H118" s="4">
+      <c r="G118" s="3">
+        <v>369328378</v>
+      </c>
+      <c r="H118" s="5">
         <v>322188.95</v>
       </c>
-      <c r="I118" s="4">
+      <c r="I118" s="5">
         <v>705623.85</v>
       </c>
       <c r="J118">
@@ -3911,22 +3911,22 @@
       <c r="C119">
         <v>305685</v>
       </c>
-      <c r="D119">
+      <c r="D119" s="3">
         <v>2098</v>
       </c>
-      <c r="E119">
+      <c r="E119" s="3">
         <v>1097</v>
       </c>
-      <c r="F119">
+      <c r="F119" s="3">
         <v>80421</v>
       </c>
-      <c r="G119">
-        <v>737399852</v>
-      </c>
-      <c r="H119" s="4">
+      <c r="G119" s="3">
+        <v>376402706</v>
+      </c>
+      <c r="H119" s="5">
         <v>332148.34999999998</v>
       </c>
-      <c r="I119" s="4">
+      <c r="I119" s="5">
         <v>712586.2</v>
       </c>
     </row>
@@ -3942,22 +3942,22 @@
       <c r="C120">
         <v>278563</v>
       </c>
-      <c r="D120">
+      <c r="D120" s="3">
         <v>1955</v>
       </c>
-      <c r="E120">
+      <c r="E120" s="3">
         <v>1056</v>
       </c>
-      <c r="F120">
+      <c r="F120" s="3">
         <v>78081</v>
       </c>
-      <c r="G120">
-        <v>736056355</v>
-      </c>
-      <c r="H120" s="4">
+      <c r="G120" s="3">
+        <v>376559001</v>
+      </c>
+      <c r="H120" s="5">
         <v>325770.25</v>
       </c>
-      <c r="I120" s="4">
+      <c r="I120" s="5">
         <v>694108.7</v>
       </c>
     </row>
@@ -3973,22 +3973,22 @@
       <c r="C121">
         <v>271783</v>
       </c>
-      <c r="D121">
+      <c r="D121" s="3">
         <v>2109</v>
       </c>
-      <c r="E121">
+      <c r="E121" s="3">
         <v>1164</v>
       </c>
-      <c r="F121">
+      <c r="F121" s="3">
         <v>80805</v>
       </c>
-      <c r="G121">
-        <v>793660471</v>
-      </c>
-      <c r="H121" s="4">
+      <c r="G121" s="3">
+        <v>410976221</v>
+      </c>
+      <c r="H121" s="5">
         <v>316034.45</v>
       </c>
-      <c r="I121" s="4">
+      <c r="I121" s="5">
         <v>649468.69999999995</v>
       </c>
       <c r="J121">
@@ -4004,22 +4004,22 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="D122">
+      <c r="D122" s="3">
         <v>2000</v>
       </c>
-      <c r="E122">
+      <c r="E122" s="3">
         <v>1195</v>
       </c>
-      <c r="F122">
+      <c r="F122" s="3">
         <v>81511</v>
       </c>
-      <c r="G122">
-        <v>686976502</v>
-      </c>
-      <c r="H122" s="4">
+      <c r="G122" s="3">
+        <v>353543471</v>
+      </c>
+      <c r="H122" s="5">
         <v>332891</v>
       </c>
-      <c r="I122" s="4">
+      <c r="I122" s="5">
         <v>698715.1</v>
       </c>
     </row>
@@ -4032,22 +4032,22 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="D123">
+      <c r="D123" s="3">
         <v>1639</v>
       </c>
-      <c r="E123">
+      <c r="E123" s="3">
         <v>1072</v>
       </c>
-      <c r="F123">
+      <c r="F123" s="3">
         <v>70035</v>
       </c>
-      <c r="G123">
-        <v>701201101</v>
-      </c>
-      <c r="H123" s="4">
+      <c r="G123" s="3">
+        <v>359608630</v>
+      </c>
+      <c r="H123" s="5">
         <v>262194.65000000002</v>
       </c>
-      <c r="I123" s="4">
+      <c r="I123" s="5">
         <v>525653.44999999995</v>
       </c>
     </row>
@@ -4060,22 +4060,22 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="D124">
+      <c r="D124" s="3">
         <v>2057</v>
       </c>
-      <c r="E124">
+      <c r="E124" s="3">
         <v>1066</v>
       </c>
-      <c r="F124">
+      <c r="F124" s="3">
         <v>76671</v>
       </c>
-      <c r="G124">
-        <v>787598999</v>
-      </c>
-      <c r="H124" s="4">
+      <c r="G124" s="3">
+        <v>399220266</v>
+      </c>
+      <c r="H124" s="5">
         <v>311710.25</v>
       </c>
-      <c r="I124" s="4">
+      <c r="I124" s="5">
         <v>650452.25</v>
       </c>
       <c r="J124">
@@ -4091,22 +4091,22 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="D125">
+      <c r="D125" s="3">
         <v>1976</v>
       </c>
-      <c r="E125">
+      <c r="E125" s="3">
         <v>1054</v>
       </c>
-      <c r="F125">
+      <c r="F125" s="3">
         <v>76751</v>
       </c>
-      <c r="G125">
-        <v>690889219</v>
-      </c>
-      <c r="H125" s="4">
+      <c r="G125" s="3">
+        <v>353051358</v>
+      </c>
+      <c r="H125" s="5">
         <v>333146.5</v>
       </c>
-      <c r="I125" s="4">
+      <c r="I125" s="5">
         <v>707182.2</v>
       </c>
     </row>
@@ -4119,22 +4119,22 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="D126">
+      <c r="D126" s="3">
         <v>2056</v>
       </c>
-      <c r="E126">
+      <c r="E126" s="3">
         <v>1034</v>
       </c>
-      <c r="F126">
+      <c r="F126" s="3">
         <v>78246</v>
       </c>
-      <c r="G126">
-        <v>753208260</v>
-      </c>
-      <c r="H126" s="4">
+      <c r="G126" s="3">
+        <v>383539449</v>
+      </c>
+      <c r="H126" s="5">
         <v>351778.4</v>
       </c>
-      <c r="I126" s="4">
+      <c r="I126" s="5">
         <v>731352.9</v>
       </c>
     </row>
@@ -4147,22 +4147,22 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="D127">
+      <c r="D127" s="3">
         <v>1886</v>
       </c>
-      <c r="E127">
+      <c r="E127" s="3">
         <v>1013</v>
       </c>
-      <c r="F127">
+      <c r="F127" s="3">
         <v>76665</v>
       </c>
-      <c r="G127">
-        <v>747031823</v>
-      </c>
-      <c r="H127" s="4">
+      <c r="G127" s="3">
+        <v>379053857</v>
+      </c>
+      <c r="H127" s="5">
         <v>333244.5</v>
       </c>
-      <c r="I127" s="4">
+      <c r="I127" s="5">
         <v>696847.95</v>
       </c>
       <c r="J127">
@@ -4178,22 +4178,22 @@
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="D128">
+      <c r="D128" s="3">
         <v>2008</v>
       </c>
-      <c r="E128">
+      <c r="E128" s="3">
         <v>1054</v>
       </c>
-      <c r="F128">
+      <c r="F128" s="3">
         <v>78344</v>
       </c>
-      <c r="G128">
-        <v>698686939</v>
-      </c>
-      <c r="H128" s="4">
+      <c r="G128" s="3">
+        <v>357710715</v>
+      </c>
+      <c r="H128" s="5">
         <v>345454.75</v>
       </c>
-      <c r="I128" s="4">
+      <c r="I128" s="5">
         <v>726375.25</v>
       </c>
     </row>
@@ -4206,22 +4206,22 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="D129">
+      <c r="D129" s="3">
         <v>1974</v>
       </c>
-      <c r="E129">
+      <c r="E129" s="3">
         <v>1036</v>
       </c>
-      <c r="F129">
+      <c r="F129" s="3">
         <v>82204</v>
       </c>
-      <c r="G129">
-        <v>762736046</v>
-      </c>
-      <c r="H129" s="4">
+      <c r="G129" s="3">
+        <v>392437590</v>
+      </c>
+      <c r="H129" s="5">
         <v>335078.8</v>
       </c>
-      <c r="I129" s="4">
+      <c r="I129" s="5">
         <v>706669.8</v>
       </c>
     </row>
@@ -4234,22 +4234,22 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="D130">
+      <c r="D130" s="3">
         <v>1907</v>
       </c>
-      <c r="E130">
+      <c r="E130" s="3">
         <v>1028</v>
       </c>
-      <c r="F130">
+      <c r="F130" s="3">
         <v>78556</v>
       </c>
-      <c r="G130">
-        <v>728151610</v>
-      </c>
-      <c r="H130" s="4">
+      <c r="G130" s="3">
+        <v>374980286</v>
+      </c>
+      <c r="H130" s="5">
         <v>350977.05</v>
       </c>
-      <c r="I130" s="4">
+      <c r="I130" s="5">
         <v>744923.15</v>
       </c>
       <c r="J130">
@@ -4265,22 +4265,22 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="D131">
+      <c r="D131" s="3">
         <v>1852</v>
       </c>
-      <c r="E131">
+      <c r="E131" s="3">
         <v>1071</v>
       </c>
-      <c r="F131">
+      <c r="F131" s="3">
         <v>78329</v>
       </c>
-      <c r="G131">
-        <v>761995377</v>
-      </c>
-      <c r="H131" s="4">
+      <c r="G131" s="3">
+        <v>393459737</v>
+      </c>
+      <c r="H131" s="5">
         <v>344021.05</v>
       </c>
-      <c r="I131" s="4">
+      <c r="I131" s="5">
         <v>718406.35</v>
       </c>
     </row>
@@ -4293,22 +4293,22 @@
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="D132">
+      <c r="D132" s="3">
         <v>1900</v>
       </c>
-      <c r="E132">
+      <c r="E132" s="3">
         <v>1031</v>
       </c>
-      <c r="F132">
+      <c r="F132" s="3">
         <v>74149</v>
       </c>
-      <c r="G132">
-        <v>763669240</v>
-      </c>
-      <c r="H132" s="4">
+      <c r="G132" s="3">
+        <v>396946876</v>
+      </c>
+      <c r="H132" s="5">
         <v>284221.5</v>
       </c>
-      <c r="I132" s="4">
+      <c r="I132" s="5">
         <v>582981.69999999995</v>
       </c>
     </row>
@@ -4321,22 +4321,22 @@
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="D133">
+      <c r="D133" s="3">
         <v>1862</v>
       </c>
-      <c r="E133">
+      <c r="E133" s="3">
         <v>1063</v>
       </c>
-      <c r="F133">
+      <c r="F133" s="3">
         <v>76991</v>
       </c>
-      <c r="G133">
-        <v>771782285</v>
-      </c>
-      <c r="H133" s="4">
+      <c r="G133" s="3">
+        <v>403831503</v>
+      </c>
+      <c r="H133" s="5">
         <v>283182.5</v>
       </c>
-      <c r="I133" s="4">
+      <c r="I133" s="5">
         <v>588154.19999999995</v>
       </c>
       <c r="J133">
@@ -4352,22 +4352,22 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="D134">
+      <c r="D134" s="3">
         <v>2056</v>
       </c>
-      <c r="E134">
+      <c r="E134" s="3">
         <v>1053</v>
       </c>
-      <c r="F134">
+      <c r="F134" s="3">
         <v>73023</v>
       </c>
-      <c r="G134">
-        <v>770221203</v>
-      </c>
-      <c r="H134" s="4">
+      <c r="G134" s="3">
+        <v>396272501</v>
+      </c>
+      <c r="H134" s="5">
         <v>319858.75</v>
       </c>
-      <c r="I134" s="4">
+      <c r="I134" s="5">
         <v>669000.30000000005</v>
       </c>
     </row>
@@ -4380,22 +4380,22 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="D135">
+      <c r="D135" s="3">
         <v>1382</v>
       </c>
-      <c r="E135">
+      <c r="E135" s="3">
         <v>964</v>
       </c>
-      <c r="F135">
+      <c r="F135" s="3">
         <v>67635</v>
       </c>
-      <c r="G135">
-        <v>694288801</v>
-      </c>
-      <c r="H135" s="4">
+      <c r="G135" s="3">
+        <v>360269662</v>
+      </c>
+      <c r="H135" s="5">
         <v>289453.5</v>
       </c>
-      <c r="I135" s="4">
+      <c r="I135" s="5">
         <v>614958.75</v>
       </c>
     </row>
@@ -4408,22 +4408,22 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="D136">
+      <c r="D136" s="3">
         <v>1830</v>
       </c>
-      <c r="E136">
+      <c r="E136" s="3">
         <v>1039</v>
       </c>
-      <c r="F136">
+      <c r="F136" s="3">
         <v>75297</v>
       </c>
-      <c r="G136">
-        <v>776751232</v>
-      </c>
-      <c r="H136" s="4">
+      <c r="G136" s="3">
+        <v>401067250</v>
+      </c>
+      <c r="H136" s="5">
         <v>260620.5</v>
       </c>
-      <c r="I136" s="4">
+      <c r="I136" s="5">
         <v>503168</v>
       </c>
       <c r="J136">
@@ -4439,22 +4439,22 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="D137">
+      <c r="D137" s="3">
         <v>1778</v>
       </c>
-      <c r="E137">
+      <c r="E137" s="3">
         <v>984</v>
       </c>
-      <c r="F137">
+      <c r="F137" s="3">
         <v>75289</v>
       </c>
-      <c r="G137">
-        <v>720698949</v>
-      </c>
-      <c r="H137" s="4">
+      <c r="G137" s="3">
+        <v>368162212</v>
+      </c>
+      <c r="H137" s="5">
         <v>305297.25</v>
       </c>
-      <c r="I137" s="4">
+      <c r="I137" s="5">
         <v>640330.19999999995</v>
       </c>
     </row>
@@ -4467,22 +4467,22 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="D138">
+      <c r="D138" s="3">
         <v>1866</v>
       </c>
-      <c r="E138">
+      <c r="E138" s="3">
         <v>983</v>
       </c>
-      <c r="F138">
+      <c r="F138" s="3">
         <v>79695</v>
       </c>
-      <c r="G138">
-        <v>761214761</v>
-      </c>
-      <c r="H138" s="4">
+      <c r="G138" s="3">
+        <v>390324136</v>
+      </c>
+      <c r="H138" s="5">
         <v>298720.25</v>
       </c>
-      <c r="I138" s="4">
+      <c r="I138" s="5">
         <v>636851.6</v>
       </c>
     </row>
@@ -4495,22 +4495,22 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="D139">
+      <c r="D139" s="3">
         <v>1824</v>
       </c>
-      <c r="E139">
+      <c r="E139" s="3">
         <v>904</v>
       </c>
-      <c r="F139">
+      <c r="F139" s="3">
         <v>72368</v>
       </c>
-      <c r="G139">
-        <v>753757994</v>
-      </c>
-      <c r="H139" s="4">
+      <c r="G139" s="3">
+        <v>385698437</v>
+      </c>
+      <c r="H139" s="5">
         <v>308014</v>
       </c>
-      <c r="I139" s="4">
+      <c r="I139" s="5">
         <v>646650.5</v>
       </c>
       <c r="J139">
@@ -4526,22 +4526,22 @@
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="D140">
+      <c r="D140" s="3">
         <v>1947</v>
       </c>
-      <c r="E140">
+      <c r="E140" s="3">
         <v>961</v>
       </c>
-      <c r="F140">
+      <c r="F140" s="3">
         <v>76924</v>
       </c>
-      <c r="G140">
-        <v>740467053</v>
-      </c>
-      <c r="H140" s="4">
+      <c r="G140" s="3">
+        <v>381692838</v>
+      </c>
+      <c r="H140" s="5">
         <v>332857.25</v>
       </c>
-      <c r="I140" s="4">
+      <c r="I140" s="5">
         <v>715640.25</v>
       </c>
     </row>
@@ -4554,22 +4554,22 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="D141">
+      <c r="D141" s="3">
         <v>1933</v>
       </c>
-      <c r="E141">
+      <c r="E141" s="3">
         <v>990</v>
       </c>
-      <c r="F141">
+      <c r="F141" s="3">
         <v>80798</v>
       </c>
-      <c r="G141">
-        <v>794770518</v>
-      </c>
-      <c r="H141" s="4">
+      <c r="G141" s="3">
+        <v>410757358</v>
+      </c>
+      <c r="H141" s="5">
         <v>340978</v>
       </c>
-      <c r="I141" s="4">
+      <c r="I141" s="5">
         <v>709675.75</v>
       </c>
     </row>
@@ -4582,22 +4582,22 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="D142">
+      <c r="D142" s="3">
         <v>1927</v>
       </c>
-      <c r="E142">
+      <c r="E142" s="3">
         <v>997</v>
       </c>
-      <c r="F142">
+      <c r="F142" s="3">
         <v>77599</v>
       </c>
-      <c r="G142">
-        <v>722620424</v>
-      </c>
-      <c r="H142" s="4">
+      <c r="G142" s="3">
+        <v>377063675</v>
+      </c>
+      <c r="H142" s="5">
         <v>328218.5</v>
       </c>
-      <c r="I142" s="4">
+      <c r="I142" s="5">
         <v>710892.25</v>
       </c>
       <c r="J142">
@@ -4613,22 +4613,22 @@
         <f t="shared" ref="B143:B206" si="5">B131</f>
         <v>10</v>
       </c>
-      <c r="D143">
+      <c r="D143" s="3">
         <v>1849</v>
       </c>
-      <c r="E143">
+      <c r="E143" s="3">
         <v>989</v>
       </c>
-      <c r="F143">
+      <c r="F143" s="3">
         <v>81818</v>
       </c>
-      <c r="G143">
-        <v>819650794</v>
-      </c>
-      <c r="H143" s="4">
+      <c r="G143" s="3">
+        <v>427159156</v>
+      </c>
+      <c r="H143" s="5">
         <v>321755</v>
       </c>
-      <c r="I143" s="4">
+      <c r="I143" s="5">
         <v>684207.1</v>
       </c>
     </row>
@@ -4641,22 +4641,22 @@
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="D144">
+      <c r="D144" s="3">
         <v>1899</v>
       </c>
-      <c r="E144">
+      <c r="E144" s="3">
         <v>1034</v>
       </c>
-      <c r="F144">
+      <c r="F144" s="3">
         <v>77813</v>
       </c>
-      <c r="G144">
-        <v>770548899</v>
-      </c>
-      <c r="H144" s="4">
+      <c r="G144" s="3">
+        <v>398754726</v>
+      </c>
+      <c r="H144" s="5">
         <v>331856.75</v>
       </c>
-      <c r="I144" s="4">
+      <c r="I144" s="5">
         <v>683849</v>
       </c>
     </row>
@@ -4669,22 +4669,22 @@
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="D145">
+      <c r="D145" s="3">
         <v>2061</v>
       </c>
-      <c r="E145">
+      <c r="E145" s="3">
         <v>1107</v>
       </c>
-      <c r="F145">
+      <c r="F145" s="3">
         <v>77209</v>
       </c>
-      <c r="G145">
-        <v>791520867</v>
-      </c>
-      <c r="H145" s="4">
+      <c r="G145" s="3">
+        <v>417795900</v>
+      </c>
+      <c r="H145" s="5">
         <v>320237</v>
       </c>
-      <c r="I145" s="4">
+      <c r="I145" s="5">
         <v>653358.35</v>
       </c>
       <c r="J145">
@@ -4700,22 +4700,22 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="D146">
+      <c r="D146" s="3">
         <v>1943</v>
       </c>
-      <c r="E146">
+      <c r="E146" s="3">
         <v>1058</v>
       </c>
-      <c r="F146">
+      <c r="F146" s="3">
         <v>76663</v>
       </c>
-      <c r="G146">
-        <v>800385129</v>
-      </c>
-      <c r="H146" s="4">
+      <c r="G146" s="3">
+        <v>414112962</v>
+      </c>
+      <c r="H146" s="5">
         <v>313816.5</v>
       </c>
-      <c r="I146" s="4">
+      <c r="I146" s="5">
         <v>685549.85</v>
       </c>
     </row>
@@ -4728,22 +4728,22 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="D147">
+      <c r="D147" s="3">
         <v>1485</v>
       </c>
-      <c r="E147">
+      <c r="E147" s="3">
         <v>959</v>
       </c>
-      <c r="F147">
+      <c r="F147" s="3">
         <v>69462</v>
       </c>
-      <c r="G147">
-        <v>727113277</v>
-      </c>
-      <c r="H147" s="4">
+      <c r="G147" s="3">
+        <v>379427858</v>
+      </c>
+      <c r="H147" s="5">
         <v>263249.25</v>
       </c>
-      <c r="I147" s="4">
+      <c r="I147" s="5">
         <v>559786.35</v>
       </c>
     </row>
@@ -4756,22 +4756,22 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="D148">
+      <c r="D148" s="3">
         <v>1884</v>
       </c>
-      <c r="E148">
+      <c r="E148" s="3">
         <v>1071</v>
       </c>
-      <c r="F148">
+      <c r="F148" s="3">
         <v>76412</v>
       </c>
-      <c r="G148">
-        <v>799822883</v>
-      </c>
-      <c r="H148" s="4">
+      <c r="G148" s="3">
+        <v>409883813</v>
+      </c>
+      <c r="H148" s="5">
         <v>332388.25</v>
       </c>
-      <c r="I148" s="4">
+      <c r="I148" s="5">
         <v>675274.1</v>
       </c>
       <c r="J148">
@@ -4787,22 +4787,22 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="D149">
+      <c r="D149" s="3">
         <v>1926</v>
       </c>
-      <c r="E149">
+      <c r="E149" s="3">
         <v>977</v>
       </c>
-      <c r="F149">
+      <c r="F149" s="3">
         <v>77155</v>
       </c>
-      <c r="G149">
-        <v>788027397</v>
-      </c>
-      <c r="H149" s="4">
+      <c r="G149" s="3">
+        <v>407631684</v>
+      </c>
+      <c r="H149" s="5">
         <v>327992.75</v>
       </c>
-      <c r="I149" s="4">
+      <c r="I149" s="5">
         <v>706036.8</v>
       </c>
     </row>
@@ -4815,22 +4815,22 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="D150">
+      <c r="D150" s="3">
         <v>1989</v>
       </c>
-      <c r="E150">
+      <c r="E150" s="3">
         <v>978</v>
       </c>
-      <c r="F150">
+      <c r="F150" s="3">
         <v>81980</v>
       </c>
-      <c r="G150">
-        <v>787813110</v>
-      </c>
-      <c r="H150" s="4">
+      <c r="G150" s="3">
+        <v>404639435</v>
+      </c>
+      <c r="H150" s="5">
         <v>321131.5</v>
       </c>
-      <c r="I150" s="4">
+      <c r="I150" s="5">
         <v>689141.65</v>
       </c>
     </row>
@@ -4843,22 +4843,22 @@
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="D151">
+      <c r="D151" s="3">
         <v>1972</v>
       </c>
-      <c r="E151">
+      <c r="E151" s="3">
         <v>888</v>
       </c>
-      <c r="F151">
+      <c r="F151" s="3">
         <v>77390</v>
       </c>
-      <c r="G151">
-        <v>744353441</v>
-      </c>
-      <c r="H151" s="4">
+      <c r="G151" s="3">
+        <v>384367115</v>
+      </c>
+      <c r="H151" s="5">
         <v>340346</v>
       </c>
-      <c r="I151" s="4">
+      <c r="I151" s="5">
         <v>736438.8</v>
       </c>
       <c r="J151">
@@ -4874,22 +4874,22 @@
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="D152">
+      <c r="D152" s="3">
         <v>1934</v>
       </c>
-      <c r="E152">
+      <c r="E152" s="3">
         <v>950</v>
       </c>
-      <c r="F152">
+      <c r="F152" s="3">
         <v>82609</v>
       </c>
-      <c r="G152">
-        <v>783006733</v>
-      </c>
-      <c r="H152" s="4">
+      <c r="G152" s="3">
+        <v>406026428</v>
+      </c>
+      <c r="H152" s="5">
         <v>337214.75</v>
       </c>
-      <c r="I152" s="4">
+      <c r="I152" s="5">
         <v>717407</v>
       </c>
     </row>
@@ -4902,22 +4902,22 @@
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="D153">
+      <c r="D153" s="3">
         <v>1924</v>
       </c>
-      <c r="E153">
+      <c r="E153" s="3">
         <v>933</v>
       </c>
-      <c r="F153">
+      <c r="F153" s="3">
         <v>89145</v>
       </c>
-      <c r="G153">
-        <v>783921063</v>
-      </c>
-      <c r="H153" s="4">
+      <c r="G153" s="3">
+        <v>405881177</v>
+      </c>
+      <c r="H153" s="5">
         <v>354699.25</v>
       </c>
-      <c r="I153" s="4">
+      <c r="I153" s="5">
         <v>757702.45</v>
       </c>
     </row>
@@ -4930,22 +4930,22 @@
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="D154">
+      <c r="D154" s="3">
         <v>1794</v>
       </c>
-      <c r="E154">
+      <c r="E154" s="3">
         <v>1012</v>
       </c>
-      <c r="F154">
+      <c r="F154" s="3">
         <v>83754</v>
       </c>
-      <c r="G154">
-        <v>755390428</v>
-      </c>
-      <c r="H154" s="4">
+      <c r="G154" s="3">
+        <v>389465711</v>
+      </c>
+      <c r="H154" s="5">
         <v>350911.5</v>
       </c>
-      <c r="I154" s="4">
+      <c r="I154" s="5">
         <v>775132.7</v>
       </c>
       <c r="J154">
@@ -4961,22 +4961,22 @@
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="D155">
+      <c r="D155" s="3">
         <v>1826</v>
       </c>
-      <c r="E155">
+      <c r="E155" s="3">
         <v>1063</v>
       </c>
-      <c r="F155">
+      <c r="F155" s="3">
         <v>85842</v>
       </c>
-      <c r="G155">
-        <v>837932617</v>
-      </c>
-      <c r="H155" s="4">
+      <c r="G155" s="3">
+        <v>433093774</v>
+      </c>
+      <c r="H155" s="5">
         <v>334124.25</v>
       </c>
-      <c r="I155" s="4">
+      <c r="I155" s="5">
         <v>715682.9</v>
       </c>
     </row>
@@ -4989,22 +4989,22 @@
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="D156">
+      <c r="D156" s="3">
         <v>1777</v>
       </c>
-      <c r="E156">
+      <c r="E156" s="3">
         <v>1016</v>
       </c>
-      <c r="F156">
+      <c r="F156" s="3">
         <v>80962</v>
       </c>
-      <c r="G156">
-        <v>767742073</v>
-      </c>
-      <c r="H156" s="4">
+      <c r="G156" s="3">
+        <v>397005321</v>
+      </c>
+      <c r="H156" s="5">
         <v>320109</v>
       </c>
-      <c r="I156" s="4">
+      <c r="I156" s="5">
         <v>663345.6</v>
       </c>
     </row>
@@ -5017,22 +5017,22 @@
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="D157">
+      <c r="D157" s="3">
         <v>1772</v>
       </c>
-      <c r="E157">
+      <c r="E157" s="3">
         <v>1069</v>
       </c>
-      <c r="F157">
+      <c r="F157" s="3">
         <v>81374</v>
       </c>
-      <c r="G157">
-        <v>800631560</v>
-      </c>
-      <c r="H157" s="4">
+      <c r="G157" s="3">
+        <v>419997325</v>
+      </c>
+      <c r="H157" s="5">
         <v>314168.5</v>
       </c>
-      <c r="I157" s="4">
+      <c r="I157" s="5">
         <v>658567.44999999995</v>
       </c>
       <c r="J157">
@@ -5048,22 +5048,22 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="D158">
+      <c r="D158" s="3">
         <v>1821</v>
       </c>
-      <c r="E158">
+      <c r="E158" s="3">
         <v>1041</v>
       </c>
-      <c r="F158">
+      <c r="F158" s="3">
         <v>82537</v>
       </c>
-      <c r="G158">
-        <v>801726690</v>
-      </c>
-      <c r="H158" s="4">
+      <c r="G158" s="3">
+        <v>411562866</v>
+      </c>
+      <c r="H158" s="5">
         <v>261483.5</v>
       </c>
-      <c r="I158" s="4">
+      <c r="I158" s="5">
         <v>529427.19999999995</v>
       </c>
     </row>
@@ -5076,22 +5076,22 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="D159">
+      <c r="D159" s="3">
         <v>1444</v>
       </c>
-      <c r="E159">
+      <c r="E159" s="3">
         <v>978</v>
       </c>
-      <c r="F159">
+      <c r="F159" s="3">
         <v>73020</v>
       </c>
-      <c r="G159">
-        <v>742601432</v>
-      </c>
-      <c r="H159" s="4">
+      <c r="G159" s="3">
+        <v>379752091</v>
+      </c>
+      <c r="H159" s="5">
         <v>242707.25</v>
       </c>
-      <c r="I159" s="4">
+      <c r="I159" s="5">
         <v>502663.3</v>
       </c>
     </row>
@@ -5104,22 +5104,22 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="D160">
+      <c r="D160" s="3">
         <v>1656</v>
       </c>
-      <c r="E160">
+      <c r="E160" s="3">
         <v>1083</v>
       </c>
-      <c r="F160">
+      <c r="F160" s="3">
         <v>82528</v>
       </c>
-      <c r="G160">
-        <v>784094800</v>
-      </c>
-      <c r="H160" s="4">
+      <c r="G160" s="3">
+        <v>402956144</v>
+      </c>
+      <c r="H160" s="5">
         <v>352654.25</v>
       </c>
-      <c r="I160" s="4">
+      <c r="I160" s="5">
         <v>791863.6</v>
       </c>
       <c r="J160">
@@ -5135,22 +5135,22 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="D161">
+      <c r="D161" s="3">
         <v>1739</v>
       </c>
-      <c r="E161">
+      <c r="E161" s="3">
         <v>1049</v>
       </c>
-      <c r="F161">
+      <c r="F161" s="3">
         <v>81586</v>
       </c>
-      <c r="G161">
-        <v>800014200</v>
-      </c>
-      <c r="H161" s="4">
+      <c r="G161" s="3">
+        <v>407343705</v>
+      </c>
+      <c r="H161" s="5">
         <v>323379.5</v>
       </c>
-      <c r="I161" s="4">
+      <c r="I161" s="5">
         <v>662973.25</v>
       </c>
     </row>
@@ -5163,22 +5163,22 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="D162">
+      <c r="D162" s="3">
         <v>1808</v>
       </c>
-      <c r="E162">
+      <c r="E162" s="3">
         <v>1045</v>
       </c>
-      <c r="F162">
+      <c r="F162" s="3">
         <v>85842</v>
       </c>
-      <c r="G162">
-        <v>784559461</v>
-      </c>
-      <c r="H162" s="4">
+      <c r="G162" s="3">
+        <v>400593371</v>
+      </c>
+      <c r="H162" s="5">
         <v>335105.75</v>
       </c>
-      <c r="I162" s="4">
+      <c r="I162" s="5">
         <v>694791.05</v>
       </c>
     </row>
@@ -5191,22 +5191,22 @@
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="D163">
+      <c r="D163" s="3">
         <v>1765</v>
       </c>
-      <c r="E163">
+      <c r="E163" s="3">
         <v>990</v>
       </c>
-      <c r="F163">
+      <c r="F163" s="3">
         <v>82843</v>
       </c>
-      <c r="G163">
-        <v>764394096</v>
-      </c>
-      <c r="H163" s="4">
+      <c r="G163" s="3">
+        <v>386029321</v>
+      </c>
+      <c r="H163" s="5">
         <v>344022</v>
       </c>
-      <c r="I163" s="4">
+      <c r="I163" s="5">
         <v>721802.6</v>
       </c>
       <c r="J163">
@@ -5222,22 +5222,22 @@
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="D164">
+      <c r="D164" s="3">
         <v>1841</v>
       </c>
-      <c r="E164">
+      <c r="E164" s="3">
         <v>1026</v>
       </c>
-      <c r="F164">
+      <c r="F164" s="3">
         <v>85514</v>
       </c>
-      <c r="G164">
-        <v>802865037</v>
-      </c>
-      <c r="H164" s="4">
+      <c r="G164" s="3">
+        <v>411167554</v>
+      </c>
+      <c r="H164" s="5">
         <v>337126</v>
       </c>
-      <c r="I164" s="4">
+      <c r="I164" s="5">
         <v>699127.95</v>
       </c>
     </row>
@@ -5250,22 +5250,22 @@
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="D165">
+      <c r="D165" s="3">
         <v>1706</v>
       </c>
-      <c r="E165">
+      <c r="E165" s="3">
         <v>1042</v>
       </c>
-      <c r="F165">
+      <c r="F165" s="3">
         <v>89053</v>
       </c>
-      <c r="G165">
-        <v>773161988</v>
-      </c>
-      <c r="H165" s="4">
+      <c r="G165" s="3">
+        <v>389276034</v>
+      </c>
+      <c r="H165" s="5">
         <v>369349</v>
       </c>
-      <c r="I165" s="4">
+      <c r="I165" s="5">
         <v>786667.8</v>
       </c>
     </row>
@@ -5278,22 +5278,22 @@
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="D166">
+      <c r="D166" s="3">
         <v>1634</v>
       </c>
-      <c r="E166">
+      <c r="E166" s="3">
         <v>981</v>
       </c>
-      <c r="F166">
+      <c r="F166" s="3">
         <v>86620</v>
       </c>
-      <c r="G166">
-        <v>798683573</v>
-      </c>
-      <c r="H166" s="4">
+      <c r="G166" s="3">
+        <v>407330267</v>
+      </c>
+      <c r="H166" s="5">
         <v>346343.5</v>
       </c>
-      <c r="I166" s="4">
+      <c r="I166" s="5">
         <v>730306.9</v>
       </c>
       <c r="J166">
@@ -5309,22 +5309,22 @@
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="D167">
+      <c r="D167" s="3">
         <v>1482</v>
       </c>
-      <c r="E167">
+      <c r="E167" s="3">
         <v>1047</v>
       </c>
-      <c r="F167">
+      <c r="F167" s="3">
         <v>85073</v>
       </c>
-      <c r="G167">
-        <v>842835961</v>
-      </c>
-      <c r="H167" s="4">
+      <c r="G167" s="3">
+        <v>430742016</v>
+      </c>
+      <c r="H167" s="5">
         <v>332173.25</v>
       </c>
-      <c r="I167" s="4">
+      <c r="I167" s="5">
         <v>704588.9</v>
       </c>
     </row>
@@ -5337,22 +5337,22 @@
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="D168">
+      <c r="D168" s="3">
         <v>1600</v>
       </c>
-      <c r="E168">
+      <c r="E168" s="3">
         <v>1026</v>
       </c>
-      <c r="F168">
+      <c r="F168" s="3">
         <v>80291</v>
       </c>
-      <c r="G168">
-        <v>760852913</v>
-      </c>
-      <c r="H168" s="4">
+      <c r="G168" s="3">
+        <v>387764543</v>
+      </c>
+      <c r="H168" s="5">
         <v>341254.15</v>
       </c>
-      <c r="I168" s="4">
+      <c r="I168" s="5">
         <v>709968.7</v>
       </c>
     </row>
@@ -5365,22 +5365,22 @@
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="D169">
+      <c r="D169" s="3">
         <v>1577</v>
       </c>
-      <c r="E169">
+      <c r="E169" s="3">
         <v>1029</v>
       </c>
-      <c r="F169">
+      <c r="F169" s="3">
         <v>83746</v>
       </c>
-      <c r="G169">
-        <v>802292580</v>
-      </c>
-      <c r="H169" s="4">
+      <c r="G169" s="3">
+        <v>414388608</v>
+      </c>
+      <c r="H169" s="5">
         <v>295229.75</v>
       </c>
-      <c r="I169" s="4">
+      <c r="I169" s="5">
         <v>626276.65</v>
       </c>
       <c r="J169">
@@ -5396,22 +5396,22 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="D170">
+      <c r="D170" s="3">
         <v>1673</v>
       </c>
-      <c r="E170">
+      <c r="E170" s="3">
         <v>1052</v>
       </c>
-      <c r="F170">
+      <c r="F170" s="3">
         <v>80613</v>
       </c>
-      <c r="G170">
-        <v>781588845</v>
-      </c>
-      <c r="H170" s="4">
+      <c r="G170" s="3">
+        <v>400112952</v>
+      </c>
+      <c r="H170" s="5">
         <v>329182.75</v>
       </c>
-      <c r="I170" s="4">
+      <c r="I170" s="5">
         <v>704398.45</v>
       </c>
     </row>
@@ -5424,22 +5424,22 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="D171">
+      <c r="D171" s="3">
         <v>1140</v>
       </c>
-      <c r="E171">
+      <c r="E171" s="3">
         <v>977</v>
       </c>
-      <c r="F171">
+      <c r="F171" s="3">
         <v>77716</v>
       </c>
-      <c r="G171">
-        <v>742301912</v>
-      </c>
-      <c r="H171" s="4">
+      <c r="G171" s="3">
+        <v>379983389</v>
+      </c>
+      <c r="H171" s="5">
         <v>330352.75</v>
       </c>
-      <c r="I171" s="4">
+      <c r="I171" s="5">
         <v>713721</v>
       </c>
     </row>
@@ -5452,22 +5452,22 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="D172">
+      <c r="D172" s="3">
         <v>1511</v>
       </c>
-      <c r="E172">
+      <c r="E172" s="3">
         <v>1037</v>
       </c>
-      <c r="F172">
+      <c r="F172" s="3">
         <v>80496</v>
       </c>
-      <c r="G172">
-        <v>861746023</v>
-      </c>
-      <c r="H172" s="4">
+      <c r="G172" s="3">
+        <v>443852894</v>
+      </c>
+      <c r="H172" s="5">
         <v>316013.5</v>
       </c>
-      <c r="I172" s="4">
+      <c r="I172" s="5">
         <v>612863.19999999995</v>
       </c>
       <c r="J172">
@@ -5483,22 +5483,22 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="D173">
+      <c r="D173" s="3">
         <v>1581</v>
       </c>
-      <c r="E173">
+      <c r="E173" s="3">
         <v>949</v>
       </c>
-      <c r="F173">
+      <c r="F173" s="3">
         <v>75887</v>
       </c>
-      <c r="G173">
-        <v>817424600</v>
-      </c>
-      <c r="H173" s="4">
+      <c r="G173" s="3">
+        <v>421051957</v>
+      </c>
+      <c r="H173" s="5">
         <v>301973.5</v>
       </c>
-      <c r="I173" s="4">
+      <c r="I173" s="5">
         <v>656177.05000000005</v>
       </c>
     </row>
@@ -5511,22 +5511,22 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="D174">
+      <c r="D174" s="3">
         <v>1631</v>
       </c>
-      <c r="E174">
+      <c r="E174" s="3">
         <v>926</v>
       </c>
-      <c r="F174">
+      <c r="F174" s="3">
         <v>82060</v>
       </c>
-      <c r="G174">
-        <v>766137096</v>
-      </c>
-      <c r="H174" s="4">
+      <c r="G174" s="3">
+        <v>397298995</v>
+      </c>
+      <c r="H174" s="5">
         <v>358700.25</v>
       </c>
-      <c r="I174" s="4">
+      <c r="I174" s="5">
         <v>770409.3</v>
       </c>
     </row>
@@ -5539,22 +5539,22 @@
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="D175">
+      <c r="D175" s="3">
         <v>1659</v>
       </c>
-      <c r="E175">
+      <c r="E175" s="3">
         <v>843</v>
       </c>
-      <c r="F175">
+      <c r="F175" s="3">
         <v>80030</v>
       </c>
-      <c r="G175">
-        <v>806464628</v>
-      </c>
-      <c r="H175" s="4">
+      <c r="G175" s="3">
+        <v>416893987</v>
+      </c>
+      <c r="H175" s="5">
         <v>310829.75</v>
       </c>
-      <c r="I175" s="4">
+      <c r="I175" s="5">
         <v>676006.9</v>
       </c>
       <c r="J175">
@@ -5570,22 +5570,22 @@
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="D176">
+      <c r="D176" s="3">
         <v>1628</v>
       </c>
-      <c r="E176">
+      <c r="E176" s="3">
         <v>946</v>
       </c>
-      <c r="F176">
+      <c r="F176" s="3">
         <v>84740</v>
       </c>
-      <c r="G176">
-        <v>763486025</v>
-      </c>
-      <c r="H176" s="4">
+      <c r="G176" s="3">
+        <v>395797772</v>
+      </c>
+      <c r="H176" s="5">
         <v>308438.2</v>
       </c>
-      <c r="I176" s="4">
+      <c r="I176" s="5">
         <v>687891.8</v>
       </c>
     </row>
@@ -5598,22 +5598,22 @@
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="D177">
+      <c r="D177" s="3">
         <v>1792</v>
       </c>
-      <c r="E177">
+      <c r="E177" s="3">
         <v>908</v>
       </c>
-      <c r="F177">
+      <c r="F177" s="3">
         <v>87844</v>
       </c>
-      <c r="G177">
-        <v>790075291</v>
-      </c>
-      <c r="H177" s="4">
+      <c r="G177" s="3">
+        <v>407656317</v>
+      </c>
+      <c r="H177" s="5">
         <v>375742.5</v>
       </c>
-      <c r="I177" s="4">
+      <c r="I177" s="5">
         <v>798932.75</v>
       </c>
     </row>
@@ -5626,22 +5626,22 @@
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="D178">
+      <c r="D178" s="3">
         <v>1712</v>
       </c>
-      <c r="E178">
+      <c r="E178" s="3">
         <v>945</v>
       </c>
-      <c r="F178">
+      <c r="F178" s="3">
         <v>81732</v>
       </c>
-      <c r="G178">
-        <v>791908818</v>
-      </c>
-      <c r="H178" s="4">
+      <c r="G178" s="3">
+        <v>408750635</v>
+      </c>
+      <c r="H178" s="5">
         <v>347729.15</v>
       </c>
-      <c r="I178" s="4">
+      <c r="I178" s="5">
         <v>747707.4</v>
       </c>
       <c r="J178">
@@ -5657,22 +5657,22 @@
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="D179">
+      <c r="D179" s="3">
         <v>1687</v>
       </c>
-      <c r="E179">
+      <c r="E179" s="3">
         <v>973</v>
       </c>
-      <c r="F179">
+      <c r="F179" s="3">
         <v>81960</v>
       </c>
-      <c r="G179">
-        <v>785311527</v>
-      </c>
-      <c r="H179" s="4">
+      <c r="G179" s="3">
+        <v>404659530</v>
+      </c>
+      <c r="H179" s="5">
         <v>386377.65</v>
       </c>
-      <c r="I179" s="4">
+      <c r="I179" s="5">
         <v>814574.5</v>
       </c>
     </row>
@@ -5685,22 +5685,22 @@
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="D180">
+      <c r="D180" s="3">
         <v>1814</v>
       </c>
-      <c r="E180">
+      <c r="E180" s="3">
         <v>969</v>
       </c>
-      <c r="F180">
+      <c r="F180" s="3">
         <v>77836</v>
       </c>
-      <c r="G180">
-        <v>779598211</v>
-      </c>
-      <c r="H180" s="4">
+      <c r="G180" s="3">
+        <v>404430952</v>
+      </c>
+      <c r="H180" s="5">
         <v>429252.85</v>
       </c>
-      <c r="I180" s="4">
+      <c r="I180" s="5">
         <v>877564.2</v>
       </c>
     </row>
@@ -5713,22 +5713,22 @@
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="D181">
+      <c r="D181" s="3">
         <v>1983</v>
       </c>
-      <c r="E181">
+      <c r="E181" s="3">
         <v>1043</v>
       </c>
-      <c r="F181">
+      <c r="F181" s="3">
         <v>83271</v>
       </c>
-      <c r="G181">
-        <v>823865275</v>
-      </c>
-      <c r="H181" s="4">
+      <c r="G181" s="3">
+        <v>430961187</v>
+      </c>
+      <c r="H181" s="5">
         <v>391655.6</v>
       </c>
-      <c r="I181" s="4">
+      <c r="I181" s="5">
         <v>796536.25</v>
       </c>
       <c r="J181">
@@ -5744,22 +5744,22 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="D182">
+      <c r="D182" s="3">
         <v>1661</v>
       </c>
-      <c r="E182">
+      <c r="E182" s="3">
         <v>1111</v>
       </c>
-      <c r="F182">
+      <c r="F182" s="3">
         <v>78673</v>
       </c>
-      <c r="G182">
-        <v>758941117</v>
-      </c>
-      <c r="H182" s="4">
+      <c r="G182" s="3">
+        <v>393606472</v>
+      </c>
+      <c r="H182" s="5">
         <v>398242.25</v>
       </c>
-      <c r="I182" s="4">
+      <c r="I182" s="5">
         <v>826639.55</v>
       </c>
     </row>
@@ -5772,22 +5772,22 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="D183">
+      <c r="D183" s="3">
         <v>1487</v>
       </c>
-      <c r="E183">
+      <c r="E183" s="3">
         <v>983</v>
       </c>
-      <c r="F183">
+      <c r="F183" s="3">
         <v>75303</v>
       </c>
-      <c r="G183">
-        <v>730561950</v>
-      </c>
-      <c r="H183" s="4">
+      <c r="G183" s="3">
+        <v>377024249</v>
+      </c>
+      <c r="H183" s="5">
         <v>316799.40000000002</v>
       </c>
-      <c r="I183" s="4">
+      <c r="I183" s="5">
         <v>625381.15</v>
       </c>
     </row>
@@ -5800,22 +5800,22 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="D184">
+      <c r="D184" s="3">
         <v>1730</v>
       </c>
-      <c r="E184">
+      <c r="E184" s="3">
         <v>1071</v>
       </c>
-      <c r="F184">
+      <c r="F184" s="3">
         <v>84679</v>
       </c>
-      <c r="G184">
-        <v>864469596</v>
-      </c>
-      <c r="H184" s="4">
+      <c r="G184" s="3">
+        <v>445547523</v>
+      </c>
+      <c r="H184" s="5">
         <v>402886.75</v>
       </c>
-      <c r="I184" s="4">
+      <c r="I184" s="5">
         <v>788523.7</v>
       </c>
       <c r="J184">
@@ -5831,22 +5831,22 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="D185">
+      <c r="D185" s="3">
         <v>1799</v>
       </c>
-      <c r="E185">
+      <c r="E185" s="3">
         <v>1016</v>
       </c>
-      <c r="F185">
+      <c r="F185" s="3">
         <v>86170</v>
       </c>
-      <c r="G185">
-        <v>775483250</v>
-      </c>
-      <c r="H185" s="4">
+      <c r="G185" s="3">
+        <v>400174087</v>
+      </c>
+      <c r="H185" s="5">
         <v>333238.40000000002</v>
       </c>
-      <c r="I185" s="4">
+      <c r="I185" s="5">
         <v>714755.05</v>
       </c>
     </row>
@@ -5859,22 +5859,22 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="D186">
+      <c r="D186" s="3">
         <v>1824</v>
       </c>
-      <c r="E186">
+      <c r="E186" s="3">
         <v>990</v>
       </c>
-      <c r="F186">
+      <c r="F186" s="3">
         <v>88265</v>
       </c>
-      <c r="G186">
-        <v>776313403</v>
-      </c>
-      <c r="H186" s="4">
+      <c r="G186" s="3">
+        <v>398662743</v>
+      </c>
+      <c r="H186" s="5">
         <v>371714.75</v>
       </c>
-      <c r="I186" s="4">
+      <c r="I186" s="5">
         <v>796216.7</v>
       </c>
     </row>
@@ -5887,22 +5887,22 @@
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="D187">
+      <c r="D187" s="3">
         <v>1750</v>
       </c>
-      <c r="E187">
+      <c r="E187" s="3">
         <v>889</v>
       </c>
-      <c r="F187">
+      <c r="F187" s="3">
         <v>84634</v>
       </c>
-      <c r="G187">
-        <v>807353714</v>
-      </c>
-      <c r="H187" s="4">
+      <c r="G187" s="3">
+        <v>417749860</v>
+      </c>
+      <c r="H187" s="5">
         <v>348248.75</v>
       </c>
-      <c r="I187" s="4">
+      <c r="I187" s="5">
         <v>731032.35</v>
       </c>
       <c r="J187">
@@ -5918,22 +5918,22 @@
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="D188">
+      <c r="D188" s="3">
         <v>1782</v>
       </c>
-      <c r="E188">
+      <c r="E188" s="3">
         <v>1017</v>
       </c>
-      <c r="F188">
+      <c r="F188" s="3">
         <v>87969</v>
       </c>
-      <c r="G188">
-        <v>741951893</v>
-      </c>
-      <c r="H188" s="4">
+      <c r="G188" s="3">
+        <v>383199547</v>
+      </c>
+      <c r="H188" s="5">
         <v>369126.05</v>
       </c>
-      <c r="I188" s="4">
+      <c r="I188" s="5">
         <v>796804</v>
       </c>
     </row>
@@ -5946,22 +5946,22 @@
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="D189">
+      <c r="D189" s="3">
         <v>1718</v>
       </c>
-      <c r="E189">
+      <c r="E189" s="3">
         <v>974</v>
       </c>
-      <c r="F189">
+      <c r="F189" s="3">
         <v>91549</v>
       </c>
-      <c r="G189">
-        <v>827262050</v>
-      </c>
-      <c r="H189" s="4">
+      <c r="G189" s="3">
+        <v>425820107</v>
+      </c>
+      <c r="H189" s="5">
         <v>404818.25</v>
       </c>
-      <c r="I189" s="4">
+      <c r="I189" s="5">
         <v>847857.05</v>
       </c>
     </row>
@@ -5974,22 +5974,22 @@
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="D190">
+      <c r="D190" s="3">
         <v>1806</v>
       </c>
-      <c r="E190">
+      <c r="E190" s="3">
         <v>964</v>
       </c>
-      <c r="F190">
+      <c r="F190" s="3">
         <v>87926</v>
       </c>
-      <c r="G190">
-        <v>787070546</v>
-      </c>
-      <c r="H190" s="4">
+      <c r="G190" s="3">
+        <v>401278597</v>
+      </c>
+      <c r="H190" s="5">
         <v>365418.25</v>
       </c>
-      <c r="I190" s="4">
+      <c r="I190" s="5">
         <v>763784.5</v>
       </c>
       <c r="J190">
@@ -6005,22 +6005,22 @@
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="D191">
+      <c r="D191" s="3">
         <v>1676</v>
       </c>
-      <c r="E191">
+      <c r="E191" s="3">
         <v>1055</v>
       </c>
-      <c r="F191">
+      <c r="F191" s="3">
         <v>93158</v>
       </c>
-      <c r="G191">
-        <v>824173591</v>
-      </c>
-      <c r="H191" s="4">
+      <c r="G191" s="3">
+        <v>425442676</v>
+      </c>
+      <c r="H191" s="5">
         <v>350803.5</v>
       </c>
-      <c r="I191" s="4">
+      <c r="I191" s="5">
         <v>748762.2</v>
       </c>
     </row>
@@ -6033,22 +6033,22 @@
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="D192">
+      <c r="D192" s="3">
         <v>1757</v>
       </c>
-      <c r="E192">
+      <c r="E192" s="3">
         <v>994</v>
       </c>
-      <c r="F192">
+      <c r="F192" s="3">
         <v>90990</v>
       </c>
-      <c r="G192">
-        <v>819374526</v>
-      </c>
-      <c r="H192" s="4">
+      <c r="G192" s="3">
+        <v>424248280</v>
+      </c>
+      <c r="H192" s="5">
         <v>448437.5</v>
       </c>
-      <c r="I192" s="4">
+      <c r="I192" s="5">
         <v>924225.75</v>
       </c>
     </row>
@@ -6061,22 +6061,22 @@
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="D193">
+      <c r="D193" s="3">
         <v>1780</v>
       </c>
-      <c r="E193">
+      <c r="E193" s="3">
         <v>1047</v>
       </c>
-      <c r="F193">
+      <c r="F193" s="3">
         <v>92260</v>
       </c>
-      <c r="G193">
-        <v>828401231</v>
-      </c>
-      <c r="H193" s="4">
+      <c r="G193" s="3">
+        <v>430212627</v>
+      </c>
+      <c r="H193" s="5">
         <v>381909.9</v>
       </c>
-      <c r="I193" s="4">
+      <c r="I193" s="5">
         <v>779210.95</v>
       </c>
       <c r="J193">
@@ -6092,22 +6092,22 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="D194">
+      <c r="D194" s="3">
         <v>1846</v>
       </c>
-      <c r="E194">
+      <c r="E194" s="3">
         <v>1050</v>
       </c>
-      <c r="F194">
+      <c r="F194" s="3">
         <v>87760</v>
       </c>
-      <c r="G194">
-        <v>784276788</v>
-      </c>
-      <c r="H194" s="4">
+      <c r="G194" s="3">
+        <v>403214118</v>
+      </c>
+      <c r="H194" s="5">
         <v>376599.75</v>
       </c>
-      <c r="I194" s="4">
+      <c r="I194" s="5">
         <v>808728.5</v>
       </c>
     </row>
@@ -6120,22 +6120,22 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="D195">
+      <c r="D195" s="3">
         <v>1414</v>
       </c>
-      <c r="E195">
+      <c r="E195" s="3">
         <v>941</v>
       </c>
-      <c r="F195">
+      <c r="F195" s="3">
         <v>83486</v>
       </c>
-      <c r="G195">
-        <v>753172224</v>
-      </c>
-      <c r="H195" s="4">
+      <c r="G195" s="3">
+        <v>390631347</v>
+      </c>
+      <c r="H195" s="5">
         <v>332376.5</v>
       </c>
-      <c r="I195" s="4">
+      <c r="I195" s="5">
         <v>725059.45</v>
       </c>
     </row>
@@ -6148,22 +6148,22 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="D196">
+      <c r="D196" s="3">
         <v>1628</v>
       </c>
-      <c r="E196">
+      <c r="E196" s="3">
         <v>1088</v>
       </c>
-      <c r="F196">
+      <c r="F196" s="3">
         <v>88938</v>
       </c>
-      <c r="G196">
-        <v>877319654</v>
-      </c>
-      <c r="H196" s="4">
+      <c r="G196" s="3">
+        <v>448885870</v>
+      </c>
+      <c r="H196" s="5">
         <v>304023.65000000002</v>
       </c>
-      <c r="I196" s="4">
+      <c r="I196" s="5">
         <v>577865.9</v>
       </c>
       <c r="J196">
@@ -6179,22 +6179,22 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="D197">
+      <c r="D197" s="3">
         <v>1601</v>
       </c>
-      <c r="E197">
+      <c r="E197" s="3">
         <v>1014</v>
       </c>
-      <c r="F197">
+      <c r="F197" s="3">
         <v>92474</v>
       </c>
-      <c r="G197">
-        <v>774741598</v>
-      </c>
-      <c r="H197" s="4">
+      <c r="G197" s="3">
+        <v>397427766</v>
+      </c>
+      <c r="H197" s="5">
         <v>333009.65000000002</v>
       </c>
-      <c r="I197" s="4">
+      <c r="I197" s="5">
         <v>705535.95</v>
       </c>
     </row>
@@ -6207,22 +6207,22 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="D198">
+      <c r="D198" s="3">
         <v>1696</v>
       </c>
-      <c r="E198">
+      <c r="E198" s="3">
         <v>1069</v>
       </c>
-      <c r="F198">
+      <c r="F198" s="3">
         <v>99171</v>
       </c>
-      <c r="G198">
-        <v>843682812</v>
-      </c>
-      <c r="H198" s="4">
+      <c r="G198" s="3">
+        <v>430725811</v>
+      </c>
+      <c r="H198" s="5">
         <v>351431.75</v>
       </c>
-      <c r="I198" s="4">
+      <c r="I198" s="5">
         <v>768804.35</v>
       </c>
     </row>
@@ -6235,22 +6235,22 @@
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="D199">
+      <c r="D199" s="3">
         <v>1683</v>
       </c>
-      <c r="E199">
+      <c r="E199" s="3">
         <v>955</v>
       </c>
-      <c r="F199">
+      <c r="F199" s="3">
         <v>97157</v>
       </c>
-      <c r="G199">
-        <v>828991712</v>
-      </c>
-      <c r="H199" s="4">
+      <c r="G199" s="3">
+        <v>423987887</v>
+      </c>
+      <c r="H199" s="5">
         <v>329776</v>
       </c>
-      <c r="I199" s="4">
+      <c r="I199" s="5">
         <v>723141.15</v>
       </c>
       <c r="J199">
@@ -6266,22 +6266,22 @@
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="D200">
+      <c r="D200" s="3">
         <v>1666</v>
       </c>
-      <c r="E200">
+      <c r="E200" s="3">
         <v>998</v>
       </c>
-      <c r="F200">
+      <c r="F200" s="3">
         <v>99739</v>
       </c>
-      <c r="G200">
-        <v>779102686</v>
-      </c>
-      <c r="H200" s="4">
+      <c r="G200" s="3">
+        <v>402877769</v>
+      </c>
+      <c r="H200" s="5">
         <v>378886.25</v>
       </c>
-      <c r="I200" s="4">
+      <c r="I200" s="5">
         <v>833567.85</v>
       </c>
     </row>
@@ -6294,22 +6294,22 @@
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="D201">
+      <c r="D201" s="3">
         <v>1616</v>
       </c>
-      <c r="E201">
+      <c r="E201" s="3">
         <v>1005</v>
       </c>
-      <c r="F201">
+      <c r="F201" s="3">
         <v>101241</v>
       </c>
-      <c r="G201">
-        <v>862759944</v>
-      </c>
-      <c r="H201" s="4">
+      <c r="G201" s="3">
+        <v>445489212</v>
+      </c>
+      <c r="H201" s="5">
         <v>385962</v>
       </c>
-      <c r="I201" s="4">
+      <c r="I201" s="5">
         <v>826638.4</v>
       </c>
     </row>
@@ -6322,22 +6322,22 @@
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="D202">
+      <c r="D202" s="3">
         <v>1487</v>
       </c>
-      <c r="E202">
+      <c r="E202" s="3">
         <v>992</v>
       </c>
-      <c r="F202">
+      <c r="F202" s="3">
         <v>93952</v>
       </c>
-      <c r="G202">
-        <v>822558814</v>
-      </c>
-      <c r="H202" s="4">
+      <c r="G202" s="3">
+        <v>421768325</v>
+      </c>
+      <c r="H202" s="5">
         <v>369953.75</v>
       </c>
-      <c r="I202" s="4">
+      <c r="I202" s="5">
         <v>801264.15</v>
       </c>
       <c r="J202">
@@ -6353,22 +6353,22 @@
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="D203">
+      <c r="D203" s="3">
         <v>1646</v>
       </c>
-      <c r="E203">
+      <c r="E203" s="3">
         <v>1046</v>
       </c>
-      <c r="F203">
+      <c r="F203" s="3">
         <v>103009</v>
       </c>
-      <c r="G203">
-        <v>875090466</v>
-      </c>
-      <c r="H203" s="4">
+      <c r="G203" s="3">
+        <v>450128808</v>
+      </c>
+      <c r="H203" s="5">
         <v>448165.9</v>
       </c>
-      <c r="I203" s="4">
+      <c r="I203" s="5">
         <v>952553.75</v>
       </c>
     </row>
@@ -6381,22 +6381,22 @@
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="D204">
+      <c r="D204" s="3">
         <v>1639</v>
       </c>
-      <c r="E204">
+      <c r="E204" s="3">
         <v>977</v>
       </c>
-      <c r="F204">
+      <c r="F204" s="3">
         <v>96068</v>
       </c>
-      <c r="G204">
-        <v>832802027</v>
-      </c>
-      <c r="H204" s="4">
+      <c r="G204" s="3">
+        <v>429834472</v>
+      </c>
+      <c r="H204" s="5">
         <v>392364.75</v>
       </c>
-      <c r="I204" s="4">
+      <c r="I204" s="5">
         <v>832330.9</v>
       </c>
     </row>
@@ -6409,22 +6409,22 @@
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="D205">
+      <c r="D205" s="3">
         <v>1674</v>
       </c>
-      <c r="E205">
+      <c r="E205" s="3">
         <v>1014</v>
       </c>
-      <c r="F205">
+      <c r="F205" s="3">
         <v>96634</v>
       </c>
-      <c r="G205">
-        <v>796523111</v>
-      </c>
-      <c r="H205" s="4">
+      <c r="G205" s="3">
+        <v>414891078</v>
+      </c>
+      <c r="H205" s="5">
         <v>420904.9</v>
       </c>
-      <c r="I205" s="4">
+      <c r="I205" s="5">
         <v>903258.15</v>
       </c>
       <c r="J205">
@@ -6440,50 +6440,44 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="D206">
-        <v>1695</v>
-      </c>
-      <c r="E206">
+      <c r="E206" s="3">
         <v>1072</v>
       </c>
-      <c r="F206">
+      <c r="F206" s="3">
         <v>96250</v>
       </c>
-      <c r="G206">
-        <v>841248868</v>
-      </c>
-      <c r="H206" s="4">
+      <c r="G206" s="3">
+        <v>433615757</v>
+      </c>
+      <c r="H206" s="5">
         <v>406719</v>
       </c>
-      <c r="I206" s="4">
+      <c r="I206" s="5">
         <v>852449.5</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207">
-        <f t="shared" ref="A207:A220" si="6">A195+1</f>
+        <f t="shared" ref="A207:A221" si="6">A195+1</f>
         <v>2019</v>
       </c>
       <c r="B207">
-        <f t="shared" ref="B207:B220" si="7">B195</f>
+        <f t="shared" ref="B207:B221" si="7">B195</f>
         <v>2</v>
       </c>
-      <c r="D207">
-        <v>1162</v>
-      </c>
-      <c r="E207">
+      <c r="E207" s="3">
         <v>962</v>
       </c>
-      <c r="F207">
+      <c r="F207" s="3">
         <v>88549</v>
       </c>
-      <c r="G207">
-        <v>748734044</v>
-      </c>
-      <c r="H207" s="4">
+      <c r="G207" s="3">
+        <v>385069314</v>
+      </c>
+      <c r="H207" s="5">
         <v>340756</v>
       </c>
-      <c r="I207" s="4">
+      <c r="I207" s="5">
         <v>705306.55</v>
       </c>
     </row>
@@ -6496,22 +6490,19 @@
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="D208">
-        <v>1567</v>
-      </c>
-      <c r="E208">
+      <c r="E208" s="3">
         <v>1067</v>
       </c>
-      <c r="F208">
+      <c r="F208" s="3">
         <v>97796</v>
       </c>
-      <c r="G208">
-        <v>849439049</v>
-      </c>
-      <c r="H208" s="4">
+      <c r="G208" s="3">
+        <v>435665796</v>
+      </c>
+      <c r="H208" s="5">
         <v>339923.25</v>
       </c>
-      <c r="I208" s="4">
+      <c r="I208" s="5">
         <v>650977.15</v>
       </c>
       <c r="J208">
@@ -6527,22 +6518,19 @@
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="D209">
-        <v>1574</v>
-      </c>
-      <c r="E209">
+      <c r="E209" s="3">
         <v>1006</v>
       </c>
-      <c r="F209">
+      <c r="F209" s="3">
         <v>98341</v>
       </c>
-      <c r="G209">
-        <v>789832572</v>
-      </c>
-      <c r="H209" s="4">
+      <c r="G209" s="3">
+        <v>403472149</v>
+      </c>
+      <c r="H209" s="5">
         <v>358122.45</v>
       </c>
-      <c r="I209" s="4">
+      <c r="I209" s="5">
         <v>736465.95</v>
       </c>
     </row>
@@ -6555,22 +6543,19 @@
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="D210">
-        <v>1572</v>
-      </c>
-      <c r="E210">
+      <c r="E210" s="3">
         <v>1032</v>
       </c>
-      <c r="F210">
+      <c r="F210" s="3">
         <v>104914</v>
       </c>
-      <c r="G210">
-        <v>836120121</v>
-      </c>
-      <c r="H210" s="4">
+      <c r="G210" s="3">
+        <v>428876475</v>
+      </c>
+      <c r="H210" s="5">
         <v>388348.75</v>
       </c>
-      <c r="I210" s="4">
+      <c r="I210" s="5">
         <v>828662.15</v>
       </c>
     </row>
@@ -6583,22 +6568,19 @@
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="D211">
-        <v>1527</v>
-      </c>
-      <c r="E211">
+      <c r="E211" s="3">
         <v>975</v>
       </c>
-      <c r="F211">
+      <c r="F211" s="3">
         <v>98233</v>
       </c>
-      <c r="G211">
-        <v>766520436</v>
-      </c>
-      <c r="H211" s="4">
+      <c r="G211" s="3">
+        <v>391330026</v>
+      </c>
+      <c r="H211" s="5">
         <v>358953.25</v>
       </c>
-      <c r="I211" s="4">
+      <c r="I211" s="5">
         <v>764777.25</v>
       </c>
       <c r="J211">
@@ -6614,22 +6596,19 @@
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="D212">
-        <v>1549</v>
-      </c>
-      <c r="E212">
+      <c r="E212" s="3">
         <v>1001</v>
       </c>
-      <c r="F212">
+      <c r="F212" s="3">
         <v>103574</v>
       </c>
-      <c r="G212">
-        <v>765035601</v>
-      </c>
-      <c r="H212" s="4">
+      <c r="G212" s="3">
+        <v>393143843</v>
+      </c>
+      <c r="H212" s="5">
         <v>424549.25</v>
       </c>
-      <c r="I212" s="4">
+      <c r="I212" s="5">
         <v>912154.15</v>
       </c>
     </row>
@@ -6642,22 +6621,19 @@
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="D213">
-        <v>1584</v>
-      </c>
-      <c r="E213">
+      <c r="E213" s="3">
         <v>1113</v>
       </c>
-      <c r="F213">
+      <c r="F213" s="3">
         <v>106000</v>
       </c>
-      <c r="G213">
-        <v>802393709</v>
-      </c>
-      <c r="H213" s="4">
+      <c r="G213" s="3">
+        <v>411501632</v>
+      </c>
+      <c r="H213" s="5">
         <v>411995</v>
       </c>
-      <c r="I213" s="4">
+      <c r="I213" s="5">
         <v>861080.8</v>
       </c>
     </row>
@@ -6670,22 +6646,19 @@
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="D214">
-        <v>1484</v>
-      </c>
-      <c r="E214">
+      <c r="E214" s="3">
         <v>1025</v>
       </c>
-      <c r="F214">
+      <c r="F214" s="3">
         <v>98974</v>
       </c>
-      <c r="G214">
-        <v>727853980</v>
-      </c>
-      <c r="H214" s="4">
+      <c r="G214" s="3">
+        <v>375483617</v>
+      </c>
+      <c r="H214" s="5">
         <v>365222</v>
       </c>
-      <c r="I214" s="4">
+      <c r="I214" s="5">
         <v>779902.75</v>
       </c>
       <c r="J214">
@@ -6701,22 +6674,19 @@
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="D215">
-        <v>1553</v>
-      </c>
-      <c r="E215">
+      <c r="E215" s="3">
         <v>1137</v>
       </c>
-      <c r="F215">
+      <c r="F215" s="3">
         <v>108919</v>
       </c>
-      <c r="G215">
-        <v>831758191</v>
-      </c>
-      <c r="H215" s="4">
+      <c r="G215" s="3">
+        <v>426909483</v>
+      </c>
+      <c r="H215" s="5">
         <v>367763</v>
       </c>
-      <c r="I215" s="4">
+      <c r="I215" s="5">
         <v>770188.5</v>
       </c>
     </row>
@@ -6729,22 +6699,19 @@
         <f t="shared" si="7"/>
         <v>11</v>
       </c>
-      <c r="D216">
-        <v>1511</v>
-      </c>
-      <c r="E216">
+      <c r="E216" s="3">
         <v>1136</v>
       </c>
-      <c r="F216">
+      <c r="F216" s="3">
         <v>101668</v>
       </c>
-      <c r="G216">
-        <v>782372297</v>
-      </c>
-      <c r="H216" s="4">
+      <c r="G216" s="3">
+        <v>399303886</v>
+      </c>
+      <c r="H216" s="5">
         <v>348480.25</v>
       </c>
-      <c r="I216" s="4">
+      <c r="I216" s="5">
         <v>728917.9</v>
       </c>
     </row>
@@ -6757,22 +6724,19 @@
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
-      <c r="D217">
-        <v>1524</v>
-      </c>
-      <c r="E217">
+      <c r="E217" s="3">
         <v>1143</v>
       </c>
-      <c r="F217">
+      <c r="F217" s="3">
         <v>103867</v>
       </c>
-      <c r="G217">
-        <v>770542266</v>
-      </c>
-      <c r="H217" s="4">
+      <c r="G217" s="3">
+        <v>401663035</v>
+      </c>
+      <c r="H217" s="5">
         <v>362955.5</v>
       </c>
-      <c r="I217" s="4">
+      <c r="I217" s="5">
         <v>746749.75</v>
       </c>
       <c r="J217">
@@ -6788,25 +6752,6 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="D218">
-        <v>1425</v>
-      </c>
-      <c r="E218">
-        <v>1134</v>
-      </c>
-      <c r="F218">
-        <v>105737</v>
-      </c>
-      <c r="G218">
-        <f>336911948+308086753+49360697+57660337</f>
-        <v>752019735</v>
-      </c>
-      <c r="H218" s="4">
-        <v>380382.25</v>
-      </c>
-      <c r="I218" s="4">
-        <v>806143.75</v>
-      </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219">
@@ -6817,25 +6762,6 @@
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="D219">
-        <v>1192</v>
-      </c>
-      <c r="E219">
-        <v>1021</v>
-      </c>
-      <c r="F219">
-        <v>99902</v>
-      </c>
-      <c r="G219">
-        <f>322612771+302192206+50595330+55038512</f>
-        <v>730438819</v>
-      </c>
-      <c r="H219" s="4">
-        <v>265302.25</v>
-      </c>
-      <c r="I219" s="4">
-        <v>544037.30000000005</v>
-      </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A220">
@@ -6846,18 +6772,15 @@
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="D220">
-        <v>1551</v>
-      </c>
-      <c r="G220">
-        <f>352162841+318496151+54611340+65110786</f>
-        <v>790381118</v>
-      </c>
-      <c r="H220" s="4">
-        <v>217961</v>
-      </c>
-      <c r="I220" s="4">
-        <v>449568.3</v>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <f t="shared" si="6"/>
+        <v>2020</v>
+      </c>
+      <c r="B221">
+        <f t="shared" si="7"/>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -6932,7 +6855,7 @@
       <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -6943,7 +6866,7 @@
       <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
